--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/23_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/23_225-80R17.xlsx
@@ -689,49 +689,49 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3302499310136194</v>
+        <v>0.2919391034786518</v>
       </c>
       <c r="E2">
-        <v>0.1669039253837691</v>
+        <v>0.152437243404223</v>
       </c>
       <c r="F2">
-        <v>0.1557810055898387</v>
+        <v>0.1429379722421958</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.002511839562311949</v>
       </c>
       <c r="H2">
-        <v>0.08442668820431816</v>
+        <v>0.08199947569776468</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0009759827894547074</v>
       </c>
       <c r="J2">
-        <v>0.1883348156117799</v>
+        <v>0.170739797166285</v>
       </c>
       <c r="K2">
-        <v>0.01045107765183455</v>
+        <v>0.01882232464089706</v>
       </c>
       <c r="L2">
-        <v>0.007678390196927198</v>
+        <v>0.01645437535512691</v>
       </c>
       <c r="M2">
-        <v>0.01622912513676921</v>
+        <v>0.02375693181808939</v>
       </c>
       <c r="N2">
-        <v>0.01837533895006768</v>
+        <v>0.02558985584900219</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.003106718015272886</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.0001759908955237892</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.0009568090228998262</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -740,49 +740,49 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0194848632221797</v>
+        <v>0.02653741926912092</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.003178758674523132</v>
       </c>
       <c r="W2">
-        <v>0.002084839038896349</v>
+        <v>0.01167733297837606</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.007767389120627016</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.0008362030307670096</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>7.506186234350957E-05</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.00173810703862762</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.001756865301726784</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.00812928025294977</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.001684909066291168</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.0008752778122981346</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.0005049045194451748</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.002834071135204576</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -799,49 +799,49 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3716032150744039</v>
+        <v>0.3169597553911978</v>
       </c>
       <c r="E3">
-        <v>0.1120828411820291</v>
+        <v>0.102289633698033</v>
       </c>
       <c r="F3">
-        <v>0.2284767577242373</v>
+        <v>0.198568379962563</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.00836822118298956</v>
       </c>
       <c r="H3">
-        <v>0.09814763423703488</v>
+        <v>0.09076270605904185</v>
       </c>
       <c r="I3">
-        <v>0.01186764823945862</v>
+        <v>0.01939360768734575</v>
       </c>
       <c r="J3">
-        <v>0.04550257655858475</v>
+        <v>0.04721575531727343</v>
       </c>
       <c r="K3">
-        <v>0.08018781914404788</v>
+        <v>0.07590670214006963</v>
       </c>
       <c r="L3">
-        <v>0.0256757149465948</v>
+        <v>0.03081536743557088</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.006978414549993373</v>
+        <v>0.01534933025601355</v>
       </c>
       <c r="O3">
-        <v>0.004661910947744816</v>
+        <v>0.0134331642813006</v>
       </c>
       <c r="P3">
-        <v>0.01017194478993194</v>
+        <v>0.01799095532365745</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.004351358316435461</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -850,49 +850,49 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.002925365375275477</v>
+        <v>0.01199672812110026</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.009295355101773133</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.007035729205416862</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.003479426565074241</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>0.002726442075536152</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.002176363076965386</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.0004492009233175614</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.002590317799377313</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.001719211409288433</v>
       </c>
       <c r="AE3">
-        <v>0.001718157230663112</v>
+        <v>0.010998149414442</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.001527424725741832</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>0.000820839429672175</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.003779875100802673</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -909,43 +909,43 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.4049335784125176</v>
+        <v>0.3456938746863376</v>
       </c>
       <c r="E4">
-        <v>0.1079340005213218</v>
+        <v>0.09899473485422768</v>
       </c>
       <c r="F4">
-        <v>0.2163027720570184</v>
+        <v>0.1890099561294337</v>
       </c>
       <c r="G4">
-        <v>0.03118590938781405</v>
+        <v>0.0352448527808969</v>
       </c>
       <c r="H4">
-        <v>0.06110479488036279</v>
+        <v>0.06009661643711038</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0006949268225124036</v>
       </c>
       <c r="J4">
-        <v>0.06543893651627987</v>
+        <v>0.06369671924224966</v>
       </c>
       <c r="K4">
-        <v>0.05799595403787781</v>
+        <v>0.05751429505079197</v>
       </c>
       <c r="L4">
-        <v>0.01550286680366057</v>
+        <v>0.02221792141980789</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.002530597755671145</v>
+        <v>0.01144266160788288</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.003459988575924239</v>
       </c>
       <c r="P4">
-        <v>0.002476277645915934</v>
+        <v>0.01139754125974182</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -957,52 +957,52 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>5.759551274467799E-05</v>
       </c>
       <c r="U4">
-        <v>0.03459431198155977</v>
+        <v>0.03807600154564916</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.008641118749864188</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.007419929125727592</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.007591647876050544</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.005149872947931921</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.0003580163352798684</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.000702582344894328</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.005853031909415232</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.0017960508387208</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.004503008698948875</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.004870087613147157</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.00805002337925133</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>0.007466944255457033</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1019,46 +1019,46 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.06014753881389298</v>
+        <v>0.05892326049533565</v>
       </c>
       <c r="E5">
-        <v>0.1915309565432505</v>
+        <v>0.167322162926565</v>
       </c>
       <c r="F5">
-        <v>0.26625077613972</v>
+        <v>0.2289703265540432</v>
       </c>
       <c r="G5">
-        <v>0.1053771039220696</v>
+        <v>0.09624026213756526</v>
       </c>
       <c r="H5">
-        <v>0.03532971587881437</v>
+        <v>0.03844712421125127</v>
       </c>
       <c r="I5">
-        <v>0.0224069648525802</v>
+        <v>0.02778510877699441</v>
       </c>
       <c r="J5">
-        <v>0.005173921023381215</v>
+        <v>0.01356685301139618</v>
       </c>
       <c r="K5">
-        <v>0.1127109794310434</v>
+        <v>0.1022911327076828</v>
       </c>
       <c r="L5">
-        <v>0.05891543941350453</v>
+        <v>0.0579067073792993</v>
       </c>
       <c r="M5">
-        <v>0.02193094678144049</v>
+        <v>0.02739236639488293</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.04993603835221524</v>
+        <v>0.050498183256882</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.002878685528621342</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1067,28 +1067,28 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.0003284666500660573</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.009121980449693253</v>
       </c>
       <c r="V5">
-        <v>0.05272002345521698</v>
+        <v>0.05279513164478231</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00660913812984455</v>
       </c>
       <c r="X5">
-        <v>0.01233469435441936</v>
+        <v>0.01947490429411073</v>
       </c>
       <c r="Y5">
-        <v>0.004434868664624168</v>
+        <v>0.01295709216095535</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.0004092060722180907</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1097,22 +1097,22 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.002374422805397923</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.009173053306072935</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.004576288670160399</v>
       </c>
       <c r="AI5">
-        <v>0.0008000323738270586</v>
+        <v>0.009958142436179198</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1132,49 +1132,49 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2907730386157671</v>
+        <v>0.2612541767434527</v>
       </c>
       <c r="F6">
-        <v>0.2039501137812078</v>
+        <v>0.1857583676158476</v>
       </c>
       <c r="G6">
-        <v>0.1586686203233068</v>
+        <v>0.1463844005026151</v>
       </c>
       <c r="H6">
-        <v>0.02531671387237915</v>
+        <v>0.03042988623803487</v>
       </c>
       <c r="I6">
-        <v>0.04944221589138056</v>
+        <v>0.05140792054181816</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.06940606279183588</v>
+        <v>0.06876723869334832</v>
       </c>
       <c r="L6">
-        <v>0.09585265178217162</v>
+        <v>0.09176354569746197</v>
       </c>
       <c r="M6">
-        <v>0.03780375597064969</v>
+        <v>0.04128784050087213</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03325913465644115</v>
+        <v>0.03733612079149228</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.006874311901102536</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.006216079191860478</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.0006137640514965412</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.02849876634905324</v>
+        <v>0.03319680093102374</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.006581620046065587</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.006321607816426491</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>0.006571546529491953</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.0008146819603120683</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.007028925965806903</v>
+        <v>0.01452796462238407</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1222,10 +1222,10 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.001813031413565815</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>0.002079094211327635</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -1239,43 +1239,43 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.408511989018791</v>
+        <v>0.3454516663247885</v>
       </c>
       <c r="E7">
-        <v>0.09587178602743002</v>
+        <v>0.08860371980558945</v>
       </c>
       <c r="F7">
-        <v>0.2062492433160749</v>
+        <v>0.1792837506376524</v>
       </c>
       <c r="G7">
-        <v>0.02490326550915646</v>
+        <v>0.03029989775002391</v>
       </c>
       <c r="H7">
-        <v>0.05088579437627326</v>
+        <v>0.05164571035199169</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0003027282532106233</v>
       </c>
       <c r="J7">
-        <v>0.057840105173625</v>
+        <v>0.0573589885250021</v>
       </c>
       <c r="K7">
-        <v>0.03985254030983184</v>
+        <v>0.04258139737088609</v>
       </c>
       <c r="L7">
-        <v>0.04281750163370778</v>
+        <v>0.04501724605656336</v>
       </c>
       <c r="M7">
-        <v>0.003138608383817945</v>
+        <v>0.01241925592645101</v>
       </c>
       <c r="N7">
-        <v>0.04134772231940748</v>
+        <v>0.04380975644037712</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.005781439356987293</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.007315760203907241</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1284,55 +1284,55 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>8.122587947475905E-05</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.02179851841227426</v>
+        <v>0.02774920878339196</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>0.008331272464740557</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>0.005126884849645462</v>
       </c>
       <c r="X7">
-        <v>0.006782925519610101</v>
+        <v>0.01541322587605089</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>0.003703071073091768</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>0.002093916393334866</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>0.001568049740168488</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>0.007181054962361237</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>0.003044973397423816</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>0.008149342222314034</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>0.001009394268757341</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>0.0001364570467229457</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>0.002355557941317068</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>0.004185048097773948</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1349,46 +1349,46 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0797389052359891</v>
+        <v>0.0756954058038538</v>
       </c>
       <c r="E8">
-        <v>0.08239189297285326</v>
+        <v>0.07791127720441575</v>
       </c>
       <c r="F8">
-        <v>0.2789296018937301</v>
+        <v>0.2420666866992611</v>
       </c>
       <c r="G8">
-        <v>0.09461675834130567</v>
+        <v>0.08812192732136383</v>
       </c>
       <c r="H8">
-        <v>0.1485639597466789</v>
+        <v>0.1331805829168919</v>
       </c>
       <c r="I8">
-        <v>0.04799242735959078</v>
+        <v>0.0491795982042179</v>
       </c>
       <c r="J8">
-        <v>0.004200363165332494</v>
+        <v>0.01260288084089964</v>
       </c>
       <c r="K8">
-        <v>0.02377316296478489</v>
+        <v>0.02895079180252195</v>
       </c>
       <c r="L8">
-        <v>0.09309075521005947</v>
+        <v>0.086847354262201</v>
       </c>
       <c r="M8">
-        <v>0.04738530269251557</v>
+        <v>0.04867250570331633</v>
       </c>
       <c r="N8">
-        <v>0.001272591674579706</v>
+        <v>0.01015750010144396</v>
       </c>
       <c r="O8">
-        <v>0.06067992676951985</v>
+        <v>0.05977665702075772</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.001296017348449568</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.003749720462986957</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1403,37 +1403,37 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.03625687373055702</v>
+        <v>0.03937763896596139</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>0.004336256066497054</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>0.008171908756010838</v>
       </c>
       <c r="Y8">
-        <v>0.001107478242503516</v>
+        <v>0.01001959138558284</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>0.0002221233131306265</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>0.0009854926226743291</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>0.003650717143798829</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>0.006957392522215024</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>0.004410242220320978</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.003659731311226334</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1459,70 +1459,70 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01575067179713669</v>
+        <v>0.02186376967145845</v>
       </c>
       <c r="E9">
-        <v>0.3033482894600635</v>
+        <v>0.2625750624143657</v>
       </c>
       <c r="F9">
-        <v>0.234195290194561</v>
+        <v>0.2046959047721146</v>
       </c>
       <c r="G9">
-        <v>0.07066975843399691</v>
+        <v>0.06782953408927145</v>
       </c>
       <c r="H9">
-        <v>0.05436503253710961</v>
+        <v>0.05418292713768533</v>
       </c>
       <c r="I9">
-        <v>0.03257737397486548</v>
+        <v>0.0359472564079451</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.07480821331919324</v>
+        <v>0.07129330695870235</v>
       </c>
       <c r="L9">
-        <v>0.05827862506562455</v>
+        <v>0.05745849640165581</v>
       </c>
       <c r="M9">
-        <v>0.04138136007998016</v>
+        <v>0.04331595053647762</v>
       </c>
       <c r="N9">
-        <v>0.001544300424454748</v>
+        <v>0.009973427720462117</v>
       </c>
       <c r="O9">
-        <v>0.03296186753550467</v>
+        <v>0.03626906693886979</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.003289755677792848</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>8.422311245902234E-05</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.006642293364552344</v>
       </c>
       <c r="V9">
-        <v>0.05584241730322764</v>
+        <v>0.05541945753672275</v>
       </c>
       <c r="W9">
-        <v>0.00720393524043856</v>
+        <v>0.01471038633673595</v>
       </c>
       <c r="X9">
-        <v>0.00844446359695542</v>
+        <v>0.01574867443803513</v>
       </c>
       <c r="Y9">
-        <v>0.008628401036887647</v>
+        <v>0.01590262501422453</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1534,25 +1534,25 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>0.002912676205370183</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>0.00666560713497627</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.003036128939884521</v>
       </c>
       <c r="AG9">
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>0.003250843394396793</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>0.0069326257958412</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1569,49 +1569,49 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2893550810330027</v>
+        <v>0.2561233737241914</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3363102262315339</v>
+        <v>0.2964615412484549</v>
       </c>
       <c r="G10">
-        <v>0.06812722095265079</v>
+        <v>0.06607121983936622</v>
       </c>
       <c r="H10">
-        <v>0.1214444919826614</v>
+        <v>0.1118749544812603</v>
       </c>
       <c r="I10">
-        <v>0.0107172190769363</v>
+        <v>0.01675150709139471</v>
       </c>
       <c r="J10">
-        <v>0.02553535147983046</v>
+        <v>0.02948144977898242</v>
       </c>
       <c r="K10">
-        <v>0.0403957916796604</v>
+        <v>0.04224773819595001</v>
       </c>
       <c r="L10">
-        <v>0.02709819072673736</v>
+        <v>0.03082405176836348</v>
       </c>
       <c r="M10">
-        <v>0.009981527989779601</v>
+        <v>0.01611949051058424</v>
       </c>
       <c r="N10">
-        <v>0.01171282027024512</v>
+        <v>0.01760680692175928</v>
       </c>
       <c r="O10">
-        <v>0.002285541801744437</v>
+        <v>0.00950803230286707</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.001984018386519897</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>9.740110458180114E-05</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1620,16 +1620,16 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.01781093209961845</v>
+        <v>0.02284556522002238</v>
       </c>
       <c r="V10">
-        <v>0.008830517345261748</v>
+        <v>0.0151306817228686</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.004033155494500197</v>
+        <v>0.01100937009253881</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1638,16 +1638,16 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>0.004269015689907492</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>0.001999909566011803</v>
       </c>
       <c r="AC10">
-        <v>0.01726534193196419</v>
+        <v>0.02237686029984003</v>
       </c>
       <c r="AD10">
-        <v>0.009096589903872868</v>
+        <v>0.01535925900438876</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -1656,13 +1656,13 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>0.004396984222812796</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>0.004693478683004899</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>0.002767290144328742</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1679,85 +1679,85 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.06547913900254333</v>
+        <v>0.06311694445593072</v>
       </c>
       <c r="E11">
-        <v>0.1583698081010087</v>
+        <v>0.1414655909675047</v>
       </c>
       <c r="F11">
-        <v>0.3569537470739733</v>
+        <v>0.3089612392222961</v>
       </c>
       <c r="G11">
-        <v>0.07067313954615345</v>
+        <v>0.06749782486643639</v>
       </c>
       <c r="H11">
-        <v>0.06461900336576192</v>
+        <v>0.06239146294511546</v>
       </c>
       <c r="I11">
-        <v>0.06474027923165632</v>
+        <v>0.06249375308942772</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.08758850274408513</v>
+        <v>0.08176509007910059</v>
       </c>
       <c r="L11">
-        <v>0.02800641315810495</v>
+        <v>0.03151056913852512</v>
       </c>
       <c r="M11">
-        <v>0.01739776391782711</v>
+        <v>0.02256270260511959</v>
       </c>
       <c r="N11">
-        <v>0.01165736610010075</v>
+        <v>0.01772096334517186</v>
       </c>
       <c r="O11">
-        <v>0.009315105268786469</v>
+        <v>0.01574538315297815</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.0009894184346427944</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.001459459828446376</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.005375799439889803</v>
       </c>
       <c r="V11">
-        <v>0.03653168772531067</v>
+        <v>0.03870121304240404</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.006701380537545189</v>
       </c>
       <c r="X11">
-        <v>0.004498100090316668</v>
+        <v>0.01168247953052393</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.005387962061324802</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>0.002011197054565696</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>0.001373475543345037</v>
       </c>
       <c r="AC11">
-        <v>0.01011454387531687</v>
+        <v>0.01641966974600895</v>
       </c>
       <c r="AD11">
-        <v>0.01081637047449071</v>
+        <v>0.01701162547918173</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -1766,13 +1766,13 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>0.003120959259098084</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>0.003913319196867274</v>
       </c>
       <c r="AI11">
-        <v>0.003239030324563781</v>
+        <v>0.01062051697854988</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -1912,103 +1912,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3302499310136194</v>
+        <v>0.2919391034786518</v>
       </c>
       <c r="E2">
-        <v>0.4971538563973885</v>
+        <v>0.4443763468828748</v>
       </c>
       <c r="F2">
-        <v>0.6529348619872273</v>
+        <v>0.5873143191250706</v>
       </c>
       <c r="G2">
-        <v>0.6529348619872273</v>
+        <v>0.5898261586873825</v>
       </c>
       <c r="H2">
-        <v>0.7373615501915455</v>
+        <v>0.6718256343851472</v>
       </c>
       <c r="I2">
-        <v>0.7373615501915455</v>
+        <v>0.6728016171746019</v>
       </c>
       <c r="J2">
-        <v>0.9256963658033254</v>
+        <v>0.8435414143408868</v>
       </c>
       <c r="K2">
-        <v>0.9361474434551599</v>
+        <v>0.8623637389817839</v>
       </c>
       <c r="L2">
-        <v>0.9438258336520871</v>
+        <v>0.8788181143369108</v>
       </c>
       <c r="M2">
-        <v>0.9600549587888563</v>
+        <v>0.9025750461550002</v>
       </c>
       <c r="N2">
-        <v>0.978430297738924</v>
+        <v>0.9281649020040024</v>
       </c>
       <c r="O2">
-        <v>0.978430297738924</v>
+        <v>0.9312716200192752</v>
       </c>
       <c r="P2">
-        <v>0.978430297738924</v>
+        <v>0.931447610914799</v>
       </c>
       <c r="Q2">
-        <v>0.978430297738924</v>
+        <v>0.931447610914799</v>
       </c>
       <c r="R2">
-        <v>0.978430297738924</v>
+        <v>0.9324044199376988</v>
       </c>
       <c r="S2">
-        <v>0.978430297738924</v>
+        <v>0.9324044199376988</v>
       </c>
       <c r="T2">
-        <v>0.978430297738924</v>
+        <v>0.9324044199376988</v>
       </c>
       <c r="U2">
-        <v>0.9979151609611037</v>
+        <v>0.9589418392068197</v>
       </c>
       <c r="V2">
-        <v>0.9979151609611037</v>
+        <v>0.9621205978813429</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0.9737979308597189</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.9815653199803459</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0.9824015230111129</v>
       </c>
       <c r="Z2">
-        <v>1</v>
+        <v>0.9824765848734565</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0.9824765848734565</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0.9842146919120841</v>
       </c>
       <c r="AC2">
-        <v>1</v>
+        <v>0.9859715572138109</v>
       </c>
       <c r="AD2">
-        <v>1</v>
+        <v>0.9859715572138109</v>
       </c>
       <c r="AE2">
-        <v>1</v>
+        <v>0.9941008374667607</v>
       </c>
       <c r="AF2">
-        <v>1</v>
+        <v>0.9957857465330519</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0.99666102434535</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0.9971659288647952</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ2">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2022,103 +2022,103 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3716032150744039</v>
+        <v>0.3169597553911978</v>
       </c>
       <c r="E3">
-        <v>0.483686056256433</v>
+        <v>0.4192493890892308</v>
       </c>
       <c r="F3">
-        <v>0.7121628139806703</v>
+        <v>0.6178177690517939</v>
       </c>
       <c r="G3">
-        <v>0.7121628139806703</v>
+        <v>0.6261859902347834</v>
       </c>
       <c r="H3">
-        <v>0.8103104482177051</v>
+        <v>0.7169486962938252</v>
       </c>
       <c r="I3">
-        <v>0.8221780964571638</v>
+        <v>0.736342303981171</v>
       </c>
       <c r="J3">
-        <v>0.8676806730157485</v>
+        <v>0.7835580592984444</v>
       </c>
       <c r="K3">
-        <v>0.9478684921597964</v>
+        <v>0.859464761438514</v>
       </c>
       <c r="L3">
-        <v>0.9735442071063912</v>
+        <v>0.8902801288740849</v>
       </c>
       <c r="M3">
-        <v>0.9735442071063912</v>
+        <v>0.8902801288740849</v>
       </c>
       <c r="N3">
-        <v>0.9805226216563846</v>
+        <v>0.9056294591300985</v>
       </c>
       <c r="O3">
-        <v>0.9851845326041294</v>
+        <v>0.9190626234113991</v>
       </c>
       <c r="P3">
-        <v>0.9953564773940613</v>
+        <v>0.9370535787350566</v>
       </c>
       <c r="Q3">
-        <v>0.9953564773940613</v>
+        <v>0.9370535787350566</v>
       </c>
       <c r="R3">
-        <v>0.9953564773940613</v>
+        <v>0.9414049370514921</v>
       </c>
       <c r="S3">
-        <v>0.9953564773940613</v>
+        <v>0.9414049370514921</v>
       </c>
       <c r="T3">
-        <v>0.9953564773940613</v>
+        <v>0.9414049370514921</v>
       </c>
       <c r="U3">
-        <v>0.9982818427693367</v>
+        <v>0.9534016651725924</v>
       </c>
       <c r="V3">
-        <v>0.9982818427693367</v>
+        <v>0.9626970202743655</v>
       </c>
       <c r="W3">
-        <v>0.9982818427693367</v>
+        <v>0.9697327494797824</v>
       </c>
       <c r="X3">
-        <v>0.9982818427693367</v>
+        <v>0.9732121760448567</v>
       </c>
       <c r="Y3">
-        <v>0.9982818427693367</v>
+        <v>0.9732121760448567</v>
       </c>
       <c r="Z3">
-        <v>0.9982818427693367</v>
+        <v>0.9759386181203928</v>
       </c>
       <c r="AA3">
-        <v>0.9982818427693367</v>
+        <v>0.9781149811973582</v>
       </c>
       <c r="AB3">
-        <v>0.9982818427693367</v>
+        <v>0.9785641821206758</v>
       </c>
       <c r="AC3">
-        <v>0.9982818427693367</v>
+        <v>0.9811544999200531</v>
       </c>
       <c r="AD3">
-        <v>0.9982818427693367</v>
+        <v>0.9828737113293415</v>
       </c>
       <c r="AE3">
-        <v>0.9999999999999999</v>
+        <v>0.9938718607437835</v>
       </c>
       <c r="AF3">
-        <v>0.9999999999999999</v>
+        <v>0.9953992854695254</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999999999</v>
+        <v>0.9962201248991975</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999999</v>
+        <v>0.9962201248991975</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -2132,103 +2132,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.4049335784125176</v>
+        <v>0.3456938746863376</v>
       </c>
       <c r="E4">
-        <v>0.5128675789338395</v>
+        <v>0.4446886095405653</v>
       </c>
       <c r="F4">
-        <v>0.7291703509908579</v>
+        <v>0.6336985656699989</v>
       </c>
       <c r="G4">
-        <v>0.760356260378672</v>
+        <v>0.6689434184508958</v>
       </c>
       <c r="H4">
-        <v>0.8214610552590348</v>
+        <v>0.7290400348880062</v>
       </c>
       <c r="I4">
-        <v>0.8214610552590348</v>
+        <v>0.7297349617105185</v>
       </c>
       <c r="J4">
-        <v>0.8868999917753146</v>
+        <v>0.7934316809527682</v>
       </c>
       <c r="K4">
-        <v>0.9448959458131925</v>
+        <v>0.8509459760035601</v>
       </c>
       <c r="L4">
-        <v>0.960398812616853</v>
+        <v>0.8731638974233681</v>
       </c>
       <c r="M4">
-        <v>0.960398812616853</v>
+        <v>0.8731638974233681</v>
       </c>
       <c r="N4">
-        <v>0.9629294103725241</v>
+        <v>0.884606559031251</v>
       </c>
       <c r="O4">
-        <v>0.9629294103725241</v>
+        <v>0.8880665476071752</v>
       </c>
       <c r="P4">
-        <v>0.9654056880184401</v>
+        <v>0.899464088866917</v>
       </c>
       <c r="Q4">
-        <v>0.9654056880184401</v>
+        <v>0.899464088866917</v>
       </c>
       <c r="R4">
-        <v>0.9654056880184401</v>
+        <v>0.899464088866917</v>
       </c>
       <c r="S4">
-        <v>0.9654056880184401</v>
+        <v>0.899464088866917</v>
       </c>
       <c r="T4">
-        <v>0.9654056880184401</v>
+        <v>0.8995216843796616</v>
       </c>
       <c r="U4">
-        <v>0.9999999999999998</v>
+        <v>0.9375976859253108</v>
       </c>
       <c r="V4">
-        <v>0.9999999999999998</v>
+        <v>0.946238804675175</v>
       </c>
       <c r="W4">
-        <v>0.9999999999999998</v>
+        <v>0.9536587338009026</v>
       </c>
       <c r="X4">
-        <v>0.9999999999999998</v>
+        <v>0.9612503816769531</v>
       </c>
       <c r="Y4">
-        <v>0.9999999999999998</v>
+        <v>0.9612503816769531</v>
       </c>
       <c r="Z4">
-        <v>0.9999999999999998</v>
+        <v>0.966400254624885</v>
       </c>
       <c r="AA4">
-        <v>0.9999999999999998</v>
+        <v>0.9667582709601649</v>
       </c>
       <c r="AB4">
-        <v>0.9999999999999998</v>
+        <v>0.9674608533050592</v>
       </c>
       <c r="AC4">
-        <v>0.9999999999999998</v>
+        <v>0.9733138852144744</v>
       </c>
       <c r="AD4">
-        <v>0.9999999999999998</v>
+        <v>0.9751099360531952</v>
       </c>
       <c r="AE4">
-        <v>0.9999999999999998</v>
+        <v>0.9796129447521441</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999998</v>
+        <v>0.9796129447521441</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999999998</v>
+        <v>0.9844830323652912</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999998</v>
+        <v>0.9925330557445425</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -2242,103 +2242,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.06014753881389298</v>
+        <v>0.05892326049533565</v>
       </c>
       <c r="E5">
-        <v>0.2516784953571435</v>
+        <v>0.2262454234219006</v>
       </c>
       <c r="F5">
-        <v>0.5179292714968635</v>
+        <v>0.4552157499759438</v>
       </c>
       <c r="G5">
-        <v>0.6233063754189332</v>
+        <v>0.551456012113509</v>
       </c>
       <c r="H5">
-        <v>0.6586360912977476</v>
+        <v>0.5899031363247603</v>
       </c>
       <c r="I5">
-        <v>0.6810430561503278</v>
+        <v>0.6176882451017547</v>
       </c>
       <c r="J5">
-        <v>0.686216977173709</v>
+        <v>0.6312550981131508</v>
       </c>
       <c r="K5">
-        <v>0.7989279566047524</v>
+        <v>0.7335462308208336</v>
       </c>
       <c r="L5">
-        <v>0.8578433960182569</v>
+        <v>0.7914529382001328</v>
       </c>
       <c r="M5">
-        <v>0.8797743427996974</v>
+        <v>0.8188453045950158</v>
       </c>
       <c r="N5">
-        <v>0.8797743427996974</v>
+        <v>0.8188453045950158</v>
       </c>
       <c r="O5">
-        <v>0.9297103811519126</v>
+        <v>0.8693434878518979</v>
       </c>
       <c r="P5">
-        <v>0.9297103811519126</v>
+        <v>0.8693434878518979</v>
       </c>
       <c r="Q5">
-        <v>0.9297103811519126</v>
+        <v>0.8722221733805192</v>
       </c>
       <c r="R5">
-        <v>0.9297103811519126</v>
+        <v>0.8722221733805192</v>
       </c>
       <c r="S5">
-        <v>0.9297103811519126</v>
+        <v>0.8722221733805192</v>
       </c>
       <c r="T5">
-        <v>0.9297103811519126</v>
+        <v>0.8725506400305852</v>
       </c>
       <c r="U5">
-        <v>0.9297103811519126</v>
+        <v>0.8816726204802785</v>
       </c>
       <c r="V5">
-        <v>0.9824304046071296</v>
+        <v>0.9344677521250608</v>
       </c>
       <c r="W5">
-        <v>0.9824304046071296</v>
+        <v>0.9410768902549054</v>
       </c>
       <c r="X5">
-        <v>0.994765098961549</v>
+        <v>0.9605517945490161</v>
       </c>
       <c r="Y5">
-        <v>0.9991999676261731</v>
+        <v>0.9735088867099714</v>
       </c>
       <c r="Z5">
-        <v>0.9991999676261731</v>
+        <v>0.9735088867099714</v>
       </c>
       <c r="AA5">
-        <v>0.9991999676261731</v>
+        <v>0.9739180927821894</v>
       </c>
       <c r="AB5">
-        <v>0.9991999676261731</v>
+        <v>0.9739180927821894</v>
       </c>
       <c r="AC5">
-        <v>0.9991999676261731</v>
+        <v>0.9739180927821894</v>
       </c>
       <c r="AD5">
-        <v>0.9991999676261731</v>
+        <v>0.9762925155875873</v>
       </c>
       <c r="AE5">
-        <v>0.9991999676261731</v>
+        <v>0.9762925155875873</v>
       </c>
       <c r="AF5">
-        <v>0.9991999676261731</v>
+        <v>0.9854655688936603</v>
       </c>
       <c r="AG5">
-        <v>0.9991999676261731</v>
+        <v>0.9854655688936603</v>
       </c>
       <c r="AH5">
-        <v>0.9991999676261731</v>
+        <v>0.9900418575638207</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ5">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -2355,100 +2355,100 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2907730386157671</v>
+        <v>0.2612541767434527</v>
       </c>
       <c r="F6">
-        <v>0.494723152396975</v>
+        <v>0.4470125443593003</v>
       </c>
       <c r="G6">
-        <v>0.6533917727202817</v>
+        <v>0.5933969448619154</v>
       </c>
       <c r="H6">
-        <v>0.6787084865926608</v>
+        <v>0.6238268310999503</v>
       </c>
       <c r="I6">
-        <v>0.7281507024840413</v>
+        <v>0.6752347516417685</v>
       </c>
       <c r="J6">
-        <v>0.7281507024840413</v>
+        <v>0.6752347516417685</v>
       </c>
       <c r="K6">
-        <v>0.7975567652758773</v>
+        <v>0.7440019903351168</v>
       </c>
       <c r="L6">
-        <v>0.8934094170580489</v>
+        <v>0.8357655360325787</v>
       </c>
       <c r="M6">
-        <v>0.9312131730286985</v>
+        <v>0.8770533765334508</v>
       </c>
       <c r="N6">
-        <v>0.9312131730286985</v>
+        <v>0.8770533765334508</v>
       </c>
       <c r="O6">
-        <v>0.9644723076851397</v>
+        <v>0.9143894973249431</v>
       </c>
       <c r="P6">
-        <v>0.9644723076851397</v>
+        <v>0.9212638092260457</v>
       </c>
       <c r="Q6">
-        <v>0.9644723076851397</v>
+        <v>0.9274798884179062</v>
       </c>
       <c r="R6">
-        <v>0.9644723076851397</v>
+        <v>0.9274798884179062</v>
       </c>
       <c r="S6">
-        <v>0.9644723076851397</v>
+        <v>0.9280936524694027</v>
       </c>
       <c r="T6">
-        <v>0.9644723076851397</v>
+        <v>0.9280936524694027</v>
       </c>
       <c r="U6">
-        <v>0.9644723076851397</v>
+        <v>0.9280936524694027</v>
       </c>
       <c r="V6">
-        <v>0.9929710740341929</v>
+        <v>0.9612904534004264</v>
       </c>
       <c r="W6">
-        <v>0.9929710740341929</v>
+        <v>0.967872073446492</v>
       </c>
       <c r="X6">
-        <v>0.9929710740341929</v>
+        <v>0.9741936812629185</v>
       </c>
       <c r="Y6">
-        <v>0.9929710740341929</v>
+        <v>0.9807652277924105</v>
       </c>
       <c r="Z6">
-        <v>0.9929710740341929</v>
+        <v>0.9807652277924105</v>
       </c>
       <c r="AA6">
-        <v>0.9929710740341929</v>
+        <v>0.9815799097527226</v>
       </c>
       <c r="AB6">
-        <v>0.9929710740341929</v>
+        <v>0.9815799097527226</v>
       </c>
       <c r="AC6">
-        <v>0.9929710740341929</v>
+        <v>0.9815799097527226</v>
       </c>
       <c r="AD6">
-        <v>0.9929710740341929</v>
+        <v>0.9815799097527226</v>
       </c>
       <c r="AE6">
-        <v>0.9929710740341929</v>
+        <v>0.9815799097527226</v>
       </c>
       <c r="AF6">
-        <v>0.9999999999999999</v>
+        <v>0.9961078743751066</v>
       </c>
       <c r="AG6">
-        <v>0.9999999999999999</v>
+        <v>0.9961078743751066</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>0.9961078743751066</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>0.9979209057886724</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -2462,103 +2462,103 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.408511989018791</v>
+        <v>0.3454516663247885</v>
       </c>
       <c r="E7">
-        <v>0.504383775046221</v>
+        <v>0.4340553861303779</v>
       </c>
       <c r="F7">
-        <v>0.7106330183622959</v>
+        <v>0.6133391367680303</v>
       </c>
       <c r="G7">
-        <v>0.7355362838714523</v>
+        <v>0.6436390345180543</v>
       </c>
       <c r="H7">
-        <v>0.7864220782477256</v>
+        <v>0.695284744870046</v>
       </c>
       <c r="I7">
-        <v>0.7864220782477256</v>
+        <v>0.6955874731232566</v>
       </c>
       <c r="J7">
-        <v>0.8442621834213506</v>
+        <v>0.7529464616482587</v>
       </c>
       <c r="K7">
-        <v>0.8841147237311825</v>
+        <v>0.7955278590191448</v>
       </c>
       <c r="L7">
-        <v>0.9269322253648903</v>
+        <v>0.8405451050757081</v>
       </c>
       <c r="M7">
-        <v>0.9300708337487082</v>
+        <v>0.8529643610021591</v>
       </c>
       <c r="N7">
-        <v>0.9714185560681157</v>
+        <v>0.8967741174425362</v>
       </c>
       <c r="O7">
-        <v>0.9714185560681157</v>
+        <v>0.9025555567995235</v>
       </c>
       <c r="P7">
-        <v>0.9714185560681157</v>
+        <v>0.9098713170034307</v>
       </c>
       <c r="Q7">
-        <v>0.9714185560681157</v>
+        <v>0.9098713170034307</v>
       </c>
       <c r="R7">
-        <v>0.9714185560681157</v>
+        <v>0.9098713170034307</v>
       </c>
       <c r="S7">
-        <v>0.9714185560681157</v>
+        <v>0.9099525428829055</v>
       </c>
       <c r="T7">
-        <v>0.9714185560681157</v>
+        <v>0.9099525428829055</v>
       </c>
       <c r="U7">
-        <v>0.99321707448039</v>
+        <v>0.9377017516662974</v>
       </c>
       <c r="V7">
-        <v>0.99321707448039</v>
+        <v>0.946033024131038</v>
       </c>
       <c r="W7">
-        <v>0.99321707448039</v>
+        <v>0.9511599089806834</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0.9665731348567342</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0.970276205929826</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0.970276205929826</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0.9723701223231609</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0.9739381720633293</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0.9811192270256905</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0.9841642004231144</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0.9923135426454284</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0.9933229369141857</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0.9934593939609087</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0.9958149519022257</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2572,103 +2572,103 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0797389052359891</v>
+        <v>0.0756954058038538</v>
       </c>
       <c r="E8">
-        <v>0.1621307982088424</v>
+        <v>0.1536066830082695</v>
       </c>
       <c r="F8">
-        <v>0.4410604001025724</v>
+        <v>0.3956733697075306</v>
       </c>
       <c r="G8">
-        <v>0.5356771584438781</v>
+        <v>0.4837952970288945</v>
       </c>
       <c r="H8">
-        <v>0.684241118190557</v>
+        <v>0.6169758799457864</v>
       </c>
       <c r="I8">
-        <v>0.7322335455501477</v>
+        <v>0.6661554781500043</v>
       </c>
       <c r="J8">
-        <v>0.7364339087154802</v>
+        <v>0.678758358990904</v>
       </c>
       <c r="K8">
-        <v>0.7602070716802651</v>
+        <v>0.7077091507934259</v>
       </c>
       <c r="L8">
-        <v>0.8532978268903246</v>
+        <v>0.7945565050556269</v>
       </c>
       <c r="M8">
-        <v>0.9006831295828402</v>
+        <v>0.8432290107589433</v>
       </c>
       <c r="N8">
-        <v>0.90195572125742</v>
+        <v>0.8533865108603873</v>
       </c>
       <c r="O8">
-        <v>0.9626356480269398</v>
+        <v>0.913163167881145</v>
       </c>
       <c r="P8">
-        <v>0.9626356480269398</v>
+        <v>0.9144591852295946</v>
       </c>
       <c r="Q8">
-        <v>0.9626356480269398</v>
+        <v>0.9182089056925815</v>
       </c>
       <c r="R8">
-        <v>0.9626356480269398</v>
+        <v>0.9182089056925815</v>
       </c>
       <c r="S8">
-        <v>0.9626356480269398</v>
+        <v>0.9182089056925815</v>
       </c>
       <c r="T8">
-        <v>0.9626356480269398</v>
+        <v>0.9182089056925815</v>
       </c>
       <c r="U8">
-        <v>0.9626356480269398</v>
+        <v>0.9182089056925815</v>
       </c>
       <c r="V8">
-        <v>0.9988925217574968</v>
+        <v>0.9575865446585429</v>
       </c>
       <c r="W8">
-        <v>0.9988925217574968</v>
+        <v>0.9619228007250399</v>
       </c>
       <c r="X8">
-        <v>0.9988925217574968</v>
+        <v>0.9700947094810507</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>0.9801143008666335</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0.9801143008666335</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0.9803364241797642</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0.9813219168024385</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0.9849726339462374</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>0.9919300264684524</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>0.9919300264684524</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>0.9963402686887733</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0.9963402686887733</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>0.9963402686887733</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ8">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -2682,103 +2682,103 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01575067179713669</v>
+        <v>0.02186376967145845</v>
       </c>
       <c r="E9">
-        <v>0.3190989612572002</v>
+        <v>0.2844388320858242</v>
       </c>
       <c r="F9">
-        <v>0.5532942514517611</v>
+        <v>0.4891347368579387</v>
       </c>
       <c r="G9">
-        <v>0.6239640098857581</v>
+        <v>0.5569642709472102</v>
       </c>
       <c r="H9">
-        <v>0.6783290424228676</v>
+        <v>0.6111471980848956</v>
       </c>
       <c r="I9">
-        <v>0.7109064163977331</v>
+        <v>0.6470944544928406</v>
       </c>
       <c r="J9">
-        <v>0.7109064163977331</v>
+        <v>0.6470944544928406</v>
       </c>
       <c r="K9">
-        <v>0.7857146297169264</v>
+        <v>0.718387761451543</v>
       </c>
       <c r="L9">
-        <v>0.8439932547825509</v>
+        <v>0.7758462578531988</v>
       </c>
       <c r="M9">
-        <v>0.8853746148625311</v>
+        <v>0.8191622083896765</v>
       </c>
       <c r="N9">
-        <v>0.8869189152869859</v>
+        <v>0.8291356361101386</v>
       </c>
       <c r="O9">
-        <v>0.9198807828224905</v>
+        <v>0.8654047030490084</v>
       </c>
       <c r="P9">
-        <v>0.9198807828224905</v>
+        <v>0.8654047030490084</v>
       </c>
       <c r="Q9">
-        <v>0.9198807828224905</v>
+        <v>0.8686944587268013</v>
       </c>
       <c r="R9">
-        <v>0.9198807828224905</v>
+        <v>0.8686944587268013</v>
       </c>
       <c r="S9">
-        <v>0.9198807828224905</v>
+        <v>0.8687786818392603</v>
       </c>
       <c r="T9">
-        <v>0.9198807828224905</v>
+        <v>0.8687786818392603</v>
       </c>
       <c r="U9">
-        <v>0.9198807828224905</v>
+        <v>0.8754209752038127</v>
       </c>
       <c r="V9">
-        <v>0.9757232001257181</v>
+        <v>0.9308404327405354</v>
       </c>
       <c r="W9">
-        <v>0.9829271353661567</v>
+        <v>0.9455508190772713</v>
       </c>
       <c r="X9">
-        <v>0.9913715989631121</v>
+        <v>0.9612994935153065</v>
       </c>
       <c r="Y9">
-        <v>0.9999999999999998</v>
+        <v>0.9772021185295311</v>
       </c>
       <c r="Z9">
-        <v>0.9999999999999998</v>
+        <v>0.9772021185295311</v>
       </c>
       <c r="AA9">
-        <v>0.9999999999999998</v>
+        <v>0.9772021185295311</v>
       </c>
       <c r="AB9">
-        <v>0.9999999999999998</v>
+        <v>0.9772021185295311</v>
       </c>
       <c r="AC9">
-        <v>0.9999999999999998</v>
+        <v>0.9801147947349013</v>
       </c>
       <c r="AD9">
-        <v>0.9999999999999998</v>
+        <v>0.9867804018698776</v>
       </c>
       <c r="AE9">
-        <v>0.9999999999999998</v>
+        <v>0.9867804018698776</v>
       </c>
       <c r="AF9">
-        <v>0.9999999999999998</v>
+        <v>0.9898165308097621</v>
       </c>
       <c r="AG9">
-        <v>0.9999999999999998</v>
+        <v>0.9898165308097621</v>
       </c>
       <c r="AH9">
-        <v>0.9999999999999998</v>
+        <v>0.9930673742041588</v>
       </c>
       <c r="AI9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -2792,103 +2792,103 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2893550810330027</v>
+        <v>0.2561233737241914</v>
       </c>
       <c r="E10">
-        <v>0.2893550810330027</v>
+        <v>0.2561233737241914</v>
       </c>
       <c r="F10">
-        <v>0.6256653072645366</v>
+        <v>0.5525849149726463</v>
       </c>
       <c r="G10">
-        <v>0.6937925282171874</v>
+        <v>0.6186561348120125</v>
       </c>
       <c r="H10">
-        <v>0.8152370201998488</v>
+        <v>0.7305310892932728</v>
       </c>
       <c r="I10">
-        <v>0.8259542392767851</v>
+        <v>0.7472825963846675</v>
       </c>
       <c r="J10">
-        <v>0.8514895907566156</v>
+        <v>0.7767640461636499</v>
       </c>
       <c r="K10">
-        <v>0.891885382436276</v>
+        <v>0.8190117843595999</v>
       </c>
       <c r="L10">
-        <v>0.9189835731630134</v>
+        <v>0.8498358361279633</v>
       </c>
       <c r="M10">
-        <v>0.928965101152793</v>
+        <v>0.8659553266385476</v>
       </c>
       <c r="N10">
-        <v>0.9406779214230381</v>
+        <v>0.8835621335603069</v>
       </c>
       <c r="O10">
-        <v>0.9429634632247825</v>
+        <v>0.893070165863174</v>
       </c>
       <c r="P10">
-        <v>0.9429634632247825</v>
+        <v>0.893070165863174</v>
       </c>
       <c r="Q10">
-        <v>0.9429634632247825</v>
+        <v>0.8950541842496939</v>
       </c>
       <c r="R10">
-        <v>0.9429634632247825</v>
+        <v>0.8951515853542756</v>
       </c>
       <c r="S10">
-        <v>0.9429634632247825</v>
+        <v>0.8951515853542756</v>
       </c>
       <c r="T10">
-        <v>0.9429634632247825</v>
+        <v>0.8951515853542756</v>
       </c>
       <c r="U10">
-        <v>0.960774395324401</v>
+        <v>0.917997150574298</v>
       </c>
       <c r="V10">
-        <v>0.9696049126696628</v>
+        <v>0.9331278322971666</v>
       </c>
       <c r="W10">
-        <v>0.9696049126696628</v>
+        <v>0.9331278322971666</v>
       </c>
       <c r="X10">
-        <v>0.973638068164163</v>
+        <v>0.9441372023897053</v>
       </c>
       <c r="Y10">
-        <v>0.973638068164163</v>
+        <v>0.9441372023897053</v>
       </c>
       <c r="Z10">
-        <v>0.973638068164163</v>
+        <v>0.9441372023897053</v>
       </c>
       <c r="AA10">
-        <v>0.973638068164163</v>
+        <v>0.9484062180796128</v>
       </c>
       <c r="AB10">
-        <v>0.973638068164163</v>
+        <v>0.9504061276456246</v>
       </c>
       <c r="AC10">
-        <v>0.9909034100961271</v>
+        <v>0.9727829879454646</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0.9881422469498533</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0.9881422469498533</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0.9881422469498533</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0.9925392311726661</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0.9972327098556709</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -2902,103 +2902,103 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.06547913900254333</v>
+        <v>0.06311694445593072</v>
       </c>
       <c r="E11">
-        <v>0.2238489471035521</v>
+        <v>0.2045825354234354</v>
       </c>
       <c r="F11">
-        <v>0.5808026941775253</v>
+        <v>0.5135437746457314</v>
       </c>
       <c r="G11">
-        <v>0.6514758337236788</v>
+        <v>0.5810415995121678</v>
       </c>
       <c r="H11">
-        <v>0.7160948370894407</v>
+        <v>0.6434330624572833</v>
       </c>
       <c r="I11">
-        <v>0.7808351163210969</v>
+        <v>0.705926815546711</v>
       </c>
       <c r="J11">
-        <v>0.7808351163210969</v>
+        <v>0.705926815546711</v>
       </c>
       <c r="K11">
-        <v>0.8684236190651821</v>
+        <v>0.7876919056258116</v>
       </c>
       <c r="L11">
-        <v>0.896430032223287</v>
+        <v>0.8192024747643367</v>
       </c>
       <c r="M11">
-        <v>0.9138277961411141</v>
+        <v>0.8417651773694563</v>
       </c>
       <c r="N11">
-        <v>0.9254851622412148</v>
+        <v>0.8594861407146281</v>
       </c>
       <c r="O11">
-        <v>0.9348002675100012</v>
+        <v>0.8752315238676063</v>
       </c>
       <c r="P11">
-        <v>0.9348002675100012</v>
+        <v>0.8752315238676063</v>
       </c>
       <c r="Q11">
-        <v>0.9348002675100012</v>
+        <v>0.8762209423022491</v>
       </c>
       <c r="R11">
-        <v>0.9348002675100012</v>
+        <v>0.8762209423022491</v>
       </c>
       <c r="S11">
-        <v>0.9348002675100012</v>
+        <v>0.8776804021306955</v>
       </c>
       <c r="T11">
-        <v>0.9348002675100012</v>
+        <v>0.8776804021306955</v>
       </c>
       <c r="U11">
-        <v>0.9348002675100012</v>
+        <v>0.8830562015705853</v>
       </c>
       <c r="V11">
-        <v>0.9713319552353119</v>
+        <v>0.9217574146129893</v>
       </c>
       <c r="W11">
-        <v>0.9713319552353119</v>
+        <v>0.9284587951505345</v>
       </c>
       <c r="X11">
-        <v>0.9758300553256286</v>
+        <v>0.9401412746810585</v>
       </c>
       <c r="Y11">
-        <v>0.9758300553256286</v>
+        <v>0.9455292367423833</v>
       </c>
       <c r="Z11">
-        <v>0.9758300553256286</v>
+        <v>0.9455292367423833</v>
       </c>
       <c r="AA11">
-        <v>0.9758300553256286</v>
+        <v>0.947540433796949</v>
       </c>
       <c r="AB11">
-        <v>0.9758300553256286</v>
+        <v>0.948913909340294</v>
       </c>
       <c r="AC11">
-        <v>0.9859445992009455</v>
+        <v>0.9653335790863029</v>
       </c>
       <c r="AD11">
-        <v>0.9967609696754361</v>
+        <v>0.9823452045654847</v>
       </c>
       <c r="AE11">
-        <v>0.9967609696754361</v>
+        <v>0.9823452045654847</v>
       </c>
       <c r="AF11">
-        <v>0.9967609696754361</v>
+        <v>0.9823452045654847</v>
       </c>
       <c r="AG11">
-        <v>0.9967609696754361</v>
+        <v>0.9854661638245827</v>
       </c>
       <c r="AH11">
-        <v>0.9967609696754361</v>
+        <v>0.9893794830214501</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6529348619872273</v>
+        <v>0.5873143191250706</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7121628139806703</v>
+        <v>0.6178177690517939</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3148,16 +3148,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.6336985656699989</v>
+      </c>
+      <c r="G4">
         <v>4</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.5128675789338395</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
       </c>
       <c r="H4">
         <v>23</v>
@@ -3189,16 +3189,16 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.551456012113509</v>
+      </c>
+      <c r="G5">
         <v>5</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5179292714968635</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
       </c>
       <c r="H5">
         <v>23</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6533917727202817</v>
+        <v>0.5933969448619154</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -3271,16 +3271,16 @@
         <v>1</v>
       </c>
       <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.6133391367680303</v>
+      </c>
+      <c r="G7">
         <v>4</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.504383775046221</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
       </c>
       <c r="H7">
         <v>23</v>
@@ -3312,16 +3312,16 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.6169758799457864</v>
+      </c>
+      <c r="G8">
         <v>6</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.5356771584438781</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
       </c>
       <c r="H8">
         <v>23</v>
@@ -3353,16 +3353,16 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5532942514517611</v>
+        <v>0.5569642709472102</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>23</v>
@@ -3400,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6256653072645366</v>
+        <v>0.5525849149726463</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5808026941775253</v>
+        <v>0.5135437746457314</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -3530,16 +3530,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7373615501915455</v>
+        <v>0.8435414143408868</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>23</v>
@@ -3571,16 +3571,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7121628139806703</v>
+        <v>0.7169486962938252</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -3612,16 +3612,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7291703509908579</v>
+        <v>0.7290400348880062</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>23</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7989279566047524</v>
+        <v>0.7335462308208336</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -3694,16 +3694,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.7440019903351168</v>
+      </c>
+      <c r="G6">
         <v>8</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.7281507024840413</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
       </c>
       <c r="H6">
         <v>23</v>
@@ -3735,16 +3735,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7106330183622959</v>
+        <v>0.7529464616482587</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>23</v>
@@ -3776,16 +3776,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7322335455501477</v>
+        <v>0.7077091507934259</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <v>23</v>
@@ -3817,16 +3817,16 @@
         <v>2</v>
       </c>
       <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.718387761451543</v>
+      </c>
+      <c r="G9">
         <v>8</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.7109064163977331</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
       </c>
       <c r="H9">
         <v>23</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8152370201998488</v>
+        <v>0.7305310892932728</v>
       </c>
       <c r="G10">
         <v>6</v>
@@ -3899,16 +3899,16 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.705926815546711</v>
+      </c>
+      <c r="G11">
         <v>7</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.7160948370894407</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
       </c>
       <c r="H11">
         <v>23</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9256963658033254</v>
+        <v>0.8435414143408868</v>
       </c>
       <c r="G2">
         <v>8</v>
@@ -4035,16 +4035,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8103104482177051</v>
+        <v>0.859464761438514</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -4076,16 +4076,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8214610552590348</v>
+        <v>0.8509459760035601</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>23</v>
@@ -4117,16 +4117,16 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.8188453045950158</v>
+      </c>
+      <c r="G5">
         <v>11</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8578433960182569</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
       </c>
       <c r="H5">
         <v>23</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8934094170580489</v>
+        <v>0.8357655360325787</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -4199,16 +4199,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8442621834213506</v>
+        <v>0.8405451050757081</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>23</v>
@@ -4240,16 +4240,16 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.8432290107589433</v>
+      </c>
+      <c r="G8">
         <v>11</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.8532978268903246</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
       </c>
       <c r="H8">
         <v>23</v>
@@ -4281,16 +4281,16 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8439932547825509</v>
+        <v>0.8191622083896765</v>
       </c>
       <c r="G9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>23</v>
@@ -4322,16 +4322,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8152370201998488</v>
+        <v>0.8190117843595999</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>23</v>
@@ -4363,16 +4363,16 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.8192024747643367</v>
+      </c>
+      <c r="G11">
         <v>10</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.8684236190651821</v>
-      </c>
-      <c r="G11">
-        <v>9</v>
       </c>
       <c r="H11">
         <v>23</v>
@@ -4458,16 +4458,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9256963658033254</v>
+        <v>0.9025750461550002</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>23</v>
@@ -4499,16 +4499,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9478684921597964</v>
+        <v>0.9056294591300985</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>23</v>
@@ -4540,16 +4540,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9448959458131925</v>
+        <v>0.9375976859253108</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>23</v>
@@ -4581,16 +4581,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9297103811519126</v>
+        <v>0.9344677521250608</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>23</v>
@@ -4622,16 +4622,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.9143894973249431</v>
+      </c>
+      <c r="G6">
         <v>12</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9312131730286985</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
       </c>
       <c r="H6">
         <v>23</v>
@@ -4663,16 +4663,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9269322253648903</v>
+        <v>0.9025555567995235</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H7">
         <v>23</v>
@@ -4704,16 +4704,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9006831295828402</v>
+        <v>0.913163167881145</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8">
         <v>23</v>
@@ -4745,16 +4745,16 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9198807828224905</v>
+        <v>0.9308404327405354</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <v>23</v>
@@ -4786,16 +4786,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9189835731630134</v>
+        <v>0.917997150574298</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <v>23</v>
@@ -4827,16 +4827,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9138277961411141</v>
+        <v>0.9217574146129893</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H11">
         <v>23</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/23_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/23_225-80R17.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="61">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>Signal_Value_122</t>
-  </si>
-  <si>
-    <t>Signal_Value_123</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -562,15 +559,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -674,13 +671,10 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -784,13 +778,10 @@
       <c r="AI2">
         <v>0.002834071135204576</v>
       </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
+    </row>
+    <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -894,13 +885,10 @@
       <c r="AI3">
         <v>0.003779875100802673</v>
       </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
+    </row>
+    <row r="4" spans="1:35">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1004,13 +992,10 @@
       <c r="AI4">
         <v>0.007466944255457033</v>
       </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
+    </row>
+    <row r="5" spans="1:35">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1114,123 +1099,117 @@
       <c r="AI5">
         <v>0.009958142436179198</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
+    </row>
+    <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.008750371689060624</v>
+      </c>
+      <c r="E6">
+        <v>0.2595076464371307</v>
+      </c>
+      <c r="F6">
+        <v>0.1845165401253246</v>
+      </c>
+      <c r="G6">
+        <v>0.1454057949352804</v>
+      </c>
+      <c r="H6">
+        <v>0.03022645707492966</v>
+      </c>
+      <c r="I6">
+        <v>0.05106424951488776</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0.06830751755909846</v>
+      </c>
+      <c r="L6">
+        <v>0.09115009018997906</v>
+      </c>
+      <c r="M6">
+        <v>0.04101182399611717</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0.03708652223082745</v>
+      </c>
+      <c r="P6">
+        <v>0.006828355912111113</v>
+      </c>
+      <c r="Q6">
+        <v>0.006174523604767442</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.000609660930427888</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0.03297487445458732</v>
+      </c>
+      <c r="W6">
+        <v>0.006537620753811446</v>
+      </c>
+      <c r="X6">
+        <v>0.006279346751842965</v>
+      </c>
+      <c r="Y6">
+        <v>0.006527614580474987</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0.0008092356675429536</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0.01443084261339478</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0.001800910978403486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.2612541767434527</v>
-      </c>
-      <c r="F6">
-        <v>0.1857583676158476</v>
-      </c>
-      <c r="G6">
-        <v>0.1463844005026151</v>
-      </c>
-      <c r="H6">
-        <v>0.03042988623803487</v>
-      </c>
-      <c r="I6">
-        <v>0.05140792054181816</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0.06876723869334832</v>
-      </c>
-      <c r="L6">
-        <v>0.09176354569746197</v>
-      </c>
-      <c r="M6">
-        <v>0.04128784050087213</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0.03733612079149228</v>
-      </c>
-      <c r="P6">
-        <v>0.006874311901102536</v>
-      </c>
-      <c r="Q6">
-        <v>0.006216079191860478</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0.0006137640514965412</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0.03319680093102374</v>
-      </c>
-      <c r="W6">
-        <v>0.006581620046065587</v>
-      </c>
-      <c r="X6">
-        <v>0.006321607816426491</v>
-      </c>
-      <c r="Y6">
-        <v>0.006571546529491953</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0.0008146819603120683</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0.01452796462238407</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0.001813031413565815</v>
-      </c>
-      <c r="AJ6">
-        <v>0.002079094211327635</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1334,13 +1313,10 @@
       <c r="AI7">
         <v>0.004185048097773948</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36">
+    </row>
+    <row r="8" spans="1:35">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1444,13 +1420,10 @@
       <c r="AI8">
         <v>0.003659731311226334</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36">
+    </row>
+    <row r="9" spans="1:35">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1554,13 +1527,10 @@
       <c r="AI9">
         <v>0.0069326257958412</v>
       </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36">
+    </row>
+    <row r="10" spans="1:35">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1664,13 +1634,10 @@
       <c r="AI10">
         <v>0.002767290144328742</v>
       </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36">
+    </row>
+    <row r="11" spans="1:35">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1773,9 +1740,6 @@
       </c>
       <c r="AI11">
         <v>0.01062051697854988</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1785,15 +1749,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1897,13 +1861,10 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+    </row>
+    <row r="2" spans="1:35">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2007,13 +1968,10 @@
       <c r="AI2">
         <v>0.9999999999999998</v>
       </c>
-      <c r="AJ2">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
+    </row>
+    <row r="3" spans="1:35">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2117,13 +2075,10 @@
       <c r="AI3">
         <v>1</v>
       </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
+    </row>
+    <row r="4" spans="1:35">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2227,13 +2182,10 @@
       <c r="AI4">
         <v>0.9999999999999996</v>
       </c>
-      <c r="AJ4">
-        <v>0.9999999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
+    </row>
+    <row r="5" spans="1:35">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2337,123 +2289,117 @@
       <c r="AI5">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AJ5">
-        <v>0.9999999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
+    </row>
+    <row r="6" spans="1:35">
       <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.008750371689060624</v>
+      </c>
+      <c r="E6">
+        <v>0.2682580181261913</v>
+      </c>
+      <c r="F6">
+        <v>0.4527745582515159</v>
+      </c>
+      <c r="G6">
+        <v>0.5981803531867963</v>
+      </c>
+      <c r="H6">
+        <v>0.628406810261726</v>
+      </c>
+      <c r="I6">
+        <v>0.6794710597766137</v>
+      </c>
+      <c r="J6">
+        <v>0.6794710597766137</v>
+      </c>
+      <c r="K6">
+        <v>0.7477785773357122</v>
+      </c>
+      <c r="L6">
+        <v>0.8389286675256913</v>
+      </c>
+      <c r="M6">
+        <v>0.8799404915218084</v>
+      </c>
+      <c r="N6">
+        <v>0.8799404915218084</v>
+      </c>
+      <c r="O6">
+        <v>0.9170270137526358</v>
+      </c>
+      <c r="P6">
+        <v>0.9238553696647469</v>
+      </c>
+      <c r="Q6">
+        <v>0.9300298932695144</v>
+      </c>
+      <c r="R6">
+        <v>0.9300298932695144</v>
+      </c>
+      <c r="S6">
+        <v>0.9306395541999423</v>
+      </c>
+      <c r="T6">
+        <v>0.9306395541999423</v>
+      </c>
+      <c r="U6">
+        <v>0.9306395541999423</v>
+      </c>
+      <c r="V6">
+        <v>0.9636144286545296</v>
+      </c>
+      <c r="W6">
+        <v>0.9701520494083411</v>
+      </c>
+      <c r="X6">
+        <v>0.976431396160184</v>
+      </c>
+      <c r="Y6">
+        <v>0.9829590107406591</v>
+      </c>
+      <c r="Z6">
+        <v>0.9829590107406591</v>
+      </c>
+      <c r="AA6">
+        <v>0.983768246408202</v>
+      </c>
+      <c r="AB6">
+        <v>0.983768246408202</v>
+      </c>
+      <c r="AC6">
+        <v>0.983768246408202</v>
+      </c>
+      <c r="AD6">
+        <v>0.983768246408202</v>
+      </c>
+      <c r="AE6">
+        <v>0.983768246408202</v>
+      </c>
+      <c r="AF6">
+        <v>0.9981990890215968</v>
+      </c>
+      <c r="AG6">
+        <v>0.9981990890215968</v>
+      </c>
+      <c r="AH6">
+        <v>0.9981990890215968</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0.2612541767434527</v>
-      </c>
-      <c r="F6">
-        <v>0.4470125443593003</v>
-      </c>
-      <c r="G6">
-        <v>0.5933969448619154</v>
-      </c>
-      <c r="H6">
-        <v>0.6238268310999503</v>
-      </c>
-      <c r="I6">
-        <v>0.6752347516417685</v>
-      </c>
-      <c r="J6">
-        <v>0.6752347516417685</v>
-      </c>
-      <c r="K6">
-        <v>0.7440019903351168</v>
-      </c>
-      <c r="L6">
-        <v>0.8357655360325787</v>
-      </c>
-      <c r="M6">
-        <v>0.8770533765334508</v>
-      </c>
-      <c r="N6">
-        <v>0.8770533765334508</v>
-      </c>
-      <c r="O6">
-        <v>0.9143894973249431</v>
-      </c>
-      <c r="P6">
-        <v>0.9212638092260457</v>
-      </c>
-      <c r="Q6">
-        <v>0.9274798884179062</v>
-      </c>
-      <c r="R6">
-        <v>0.9274798884179062</v>
-      </c>
-      <c r="S6">
-        <v>0.9280936524694027</v>
-      </c>
-      <c r="T6">
-        <v>0.9280936524694027</v>
-      </c>
-      <c r="U6">
-        <v>0.9280936524694027</v>
-      </c>
-      <c r="V6">
-        <v>0.9612904534004264</v>
-      </c>
-      <c r="W6">
-        <v>0.967872073446492</v>
-      </c>
-      <c r="X6">
-        <v>0.9741936812629185</v>
-      </c>
-      <c r="Y6">
-        <v>0.9807652277924105</v>
-      </c>
-      <c r="Z6">
-        <v>0.9807652277924105</v>
-      </c>
-      <c r="AA6">
-        <v>0.9815799097527226</v>
-      </c>
-      <c r="AB6">
-        <v>0.9815799097527226</v>
-      </c>
-      <c r="AC6">
-        <v>0.9815799097527226</v>
-      </c>
-      <c r="AD6">
-        <v>0.9815799097527226</v>
-      </c>
-      <c r="AE6">
-        <v>0.9815799097527226</v>
-      </c>
-      <c r="AF6">
-        <v>0.9961078743751066</v>
-      </c>
-      <c r="AG6">
-        <v>0.9961078743751066</v>
-      </c>
-      <c r="AH6">
-        <v>0.9961078743751066</v>
-      </c>
-      <c r="AI6">
-        <v>0.9979209057886724</v>
-      </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2557,13 +2503,10 @@
       <c r="AI7">
         <v>0.9999999999999997</v>
       </c>
-      <c r="AJ7">
-        <v>0.9999999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36">
+    </row>
+    <row r="8" spans="1:35">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2667,13 +2610,10 @@
       <c r="AI8">
         <v>0.9999999999999997</v>
       </c>
-      <c r="AJ8">
-        <v>0.9999999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36">
+    </row>
+    <row r="9" spans="1:35">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2777,13 +2717,10 @@
       <c r="AI9">
         <v>1</v>
       </c>
-      <c r="AJ9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36">
+    </row>
+    <row r="10" spans="1:35">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2887,13 +2824,10 @@
       <c r="AI10">
         <v>0.9999999999999997</v>
       </c>
-      <c r="AJ10">
-        <v>0.9999999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36">
+    </row>
+    <row r="11" spans="1:35">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2995,9 +2929,6 @@
         <v>0.9893794830214501</v>
       </c>
       <c r="AI11">
-        <v>1</v>
-      </c>
-      <c r="AJ11">
         <v>1</v>
       </c>
     </row>
@@ -3016,48 +2947,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -3084,21 +3015,21 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>60</v>
-      </c>
-      <c r="M2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -3125,21 +3056,21 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -3166,21 +3097,21 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
         <v>58</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>59</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>60</v>
-      </c>
-      <c r="M4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -3207,21 +3138,21 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
         <v>58</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>59</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>60</v>
-      </c>
-      <c r="M5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -3236,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5933969448619154</v>
+        <v>0.5981803531867963</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -3248,21 +3179,21 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
         <v>58</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>59</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>60</v>
-      </c>
-      <c r="M6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -3289,21 +3220,21 @@
         <v>500</v>
       </c>
       <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>59</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>60</v>
-      </c>
-      <c r="M7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -3330,21 +3261,21 @@
         <v>500</v>
       </c>
       <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" t="s">
         <v>58</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>59</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>60</v>
-      </c>
-      <c r="M8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0.5</v>
@@ -3371,21 +3302,21 @@
         <v>500</v>
       </c>
       <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" t="s">
         <v>58</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>59</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>60</v>
-      </c>
-      <c r="M9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>0.5</v>
@@ -3412,21 +3343,21 @@
         <v>500</v>
       </c>
       <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
         <v>58</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>59</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>60</v>
-      </c>
-      <c r="M10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0.5</v>
@@ -3453,16 +3384,16 @@
         <v>500</v>
       </c>
       <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" t="s">
         <v>58</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>59</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>60</v>
-      </c>
-      <c r="M11" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3480,48 +3411,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -3548,21 +3479,21 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>60</v>
-      </c>
-      <c r="M2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -3589,21 +3520,21 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -3630,21 +3561,21 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
         <v>58</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>59</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>60</v>
-      </c>
-      <c r="M4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.7</v>
@@ -3671,21 +3602,21 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
         <v>58</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>59</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>60</v>
-      </c>
-      <c r="M5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -3700,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7440019903351168</v>
+        <v>0.7477785773357122</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -3712,21 +3643,21 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
         <v>58</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>59</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>60</v>
-      </c>
-      <c r="M6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0.7</v>
@@ -3753,21 +3684,21 @@
         <v>500</v>
       </c>
       <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>59</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>60</v>
-      </c>
-      <c r="M7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0.7</v>
@@ -3794,21 +3725,21 @@
         <v>500</v>
       </c>
       <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" t="s">
         <v>58</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>59</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>60</v>
-      </c>
-      <c r="M8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0.7</v>
@@ -3835,21 +3766,21 @@
         <v>500</v>
       </c>
       <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" t="s">
         <v>58</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>59</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>60</v>
-      </c>
-      <c r="M9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>0.7</v>
@@ -3876,21 +3807,21 @@
         <v>500</v>
       </c>
       <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
         <v>58</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>59</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>60</v>
-      </c>
-      <c r="M10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0.7</v>
@@ -3917,16 +3848,16 @@
         <v>500</v>
       </c>
       <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" t="s">
         <v>58</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>59</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>60</v>
-      </c>
-      <c r="M11" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3944,48 +3875,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -4012,21 +3943,21 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>60</v>
-      </c>
-      <c r="M2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -4053,21 +3984,21 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -4094,21 +4025,21 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
         <v>58</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>59</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>60</v>
-      </c>
-      <c r="M4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -4135,21 +4066,21 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
         <v>58</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>59</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>60</v>
-      </c>
-      <c r="M5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -4164,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8357655360325787</v>
+        <v>0.8389286675256913</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -4176,21 +4107,21 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
         <v>58</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>59</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>60</v>
-      </c>
-      <c r="M6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0.8</v>
@@ -4217,21 +4148,21 @@
         <v>500</v>
       </c>
       <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>59</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>60</v>
-      </c>
-      <c r="M7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0.8</v>
@@ -4258,21 +4189,21 @@
         <v>500</v>
       </c>
       <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" t="s">
         <v>58</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>59</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>60</v>
-      </c>
-      <c r="M8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0.8</v>
@@ -4299,21 +4230,21 @@
         <v>500</v>
       </c>
       <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" t="s">
         <v>58</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>59</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>60</v>
-      </c>
-      <c r="M9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>0.8</v>
@@ -4340,21 +4271,21 @@
         <v>500</v>
       </c>
       <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
         <v>58</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>59</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>60</v>
-      </c>
-      <c r="M10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0.8</v>
@@ -4381,16 +4312,16 @@
         <v>500</v>
       </c>
       <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" t="s">
         <v>58</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>59</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>60</v>
-      </c>
-      <c r="M11" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4408,48 +4339,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -4476,21 +4407,21 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>60</v>
-      </c>
-      <c r="M2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -4517,21 +4448,21 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -4558,21 +4489,21 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" t="s">
         <v>58</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>59</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>60</v>
-      </c>
-      <c r="M4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -4599,21 +4530,21 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
         <v>58</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>59</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>60</v>
-      </c>
-      <c r="M5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>0.9</v>
@@ -4628,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9143894973249431</v>
+        <v>0.9170270137526358</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -4640,21 +4571,21 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
         <v>58</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>59</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>60</v>
-      </c>
-      <c r="M6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0.9</v>
@@ -4681,21 +4612,21 @@
         <v>500</v>
       </c>
       <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>59</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>60</v>
-      </c>
-      <c r="M7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>0.9</v>
@@ -4722,21 +4653,21 @@
         <v>500</v>
       </c>
       <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" t="s">
         <v>58</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>59</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>60</v>
-      </c>
-      <c r="M8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>0.9</v>
@@ -4763,21 +4694,21 @@
         <v>500</v>
       </c>
       <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" t="s">
         <v>58</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>59</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>60</v>
-      </c>
-      <c r="M9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>0.9</v>
@@ -4804,21 +4735,21 @@
         <v>500</v>
       </c>
       <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s">
         <v>58</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>59</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>60</v>
-      </c>
-      <c r="M10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>0.9</v>
@@ -4845,16 +4776,16 @@
         <v>500</v>
       </c>
       <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" t="s">
         <v>58</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>59</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>60</v>
-      </c>
-      <c r="M11" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/23_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/23_225-80R17.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="62">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Signal_Value_122</t>
+  </si>
+  <si>
+    <t>Signal_Value_123</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -559,15 +562,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -671,10 +674,13 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -778,10 +784,13 @@
       <c r="AI2">
         <v>0.002834071135204576</v>
       </c>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -885,10 +894,13 @@
       <c r="AI3">
         <v>0.003779875100802673</v>
       </c>
-    </row>
-    <row r="4" spans="1:35">
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -992,10 +1004,13 @@
       <c r="AI4">
         <v>0.007466944255457033</v>
       </c>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1099,10 +1114,13 @@
       <c r="AI5">
         <v>0.009958142436179198</v>
       </c>
-    </row>
-    <row r="6" spans="1:35">
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1111,52 +1129,52 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008750371689060624</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2595076464371307</v>
+        <v>0.2612541767434527</v>
       </c>
       <c r="F6">
-        <v>0.1845165401253246</v>
+        <v>0.1857583676158476</v>
       </c>
       <c r="G6">
-        <v>0.1454057949352804</v>
+        <v>0.1463844005026151</v>
       </c>
       <c r="H6">
-        <v>0.03022645707492966</v>
+        <v>0.03042988623803487</v>
       </c>
       <c r="I6">
-        <v>0.05106424951488776</v>
+        <v>0.05140792054181816</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.06830751755909846</v>
+        <v>0.06876723869334832</v>
       </c>
       <c r="L6">
-        <v>0.09115009018997906</v>
+        <v>0.09176354569746197</v>
       </c>
       <c r="M6">
-        <v>0.04101182399611717</v>
+        <v>0.04128784050087213</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03708652223082745</v>
+        <v>0.03733612079149228</v>
       </c>
       <c r="P6">
-        <v>0.006828355912111113</v>
+        <v>0.006874311901102536</v>
       </c>
       <c r="Q6">
-        <v>0.006174523604767442</v>
+        <v>0.006216079191860478</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.000609660930427888</v>
+        <v>0.0006137640514965412</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1165,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.03297487445458732</v>
+        <v>0.03319680093102374</v>
       </c>
       <c r="W6">
-        <v>0.006537620753811446</v>
+        <v>0.006581620046065587</v>
       </c>
       <c r="X6">
-        <v>0.006279346751842965</v>
+        <v>0.006321607816426491</v>
       </c>
       <c r="Y6">
-        <v>0.006527614580474987</v>
+        <v>0.006571546529491953</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0008092356675429536</v>
+        <v>0.0008146819603120683</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1195,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.01443084261339478</v>
+        <v>0.01452796462238407</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1204,12 +1222,15 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.001800910978403486</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
+        <v>0.001813031413565815</v>
+      </c>
+      <c r="AJ6">
+        <v>0.002079094211327635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1313,10 +1334,13 @@
       <c r="AI7">
         <v>0.004185048097773948</v>
       </c>
-    </row>
-    <row r="8" spans="1:35">
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1420,10 +1444,13 @@
       <c r="AI8">
         <v>0.003659731311226334</v>
       </c>
-    </row>
-    <row r="9" spans="1:35">
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1527,10 +1554,13 @@
       <c r="AI9">
         <v>0.0069326257958412</v>
       </c>
-    </row>
-    <row r="10" spans="1:35">
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1634,10 +1664,13 @@
       <c r="AI10">
         <v>0.002767290144328742</v>
       </c>
-    </row>
-    <row r="11" spans="1:35">
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1740,6 +1773,9 @@
       </c>
       <c r="AI11">
         <v>0.01062051697854988</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1749,15 +1785,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1861,10 +1897,13 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1968,10 +2007,13 @@
       <c r="AI2">
         <v>0.9999999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AJ2">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2075,10 +2117,13 @@
       <c r="AI3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:35">
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2182,10 +2227,13 @@
       <c r="AI4">
         <v>0.9999999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AJ4">
+        <v>0.9999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2289,10 +2337,13 @@
       <c r="AI5">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:35">
+      <c r="AJ5">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2301,105 +2352,108 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008750371689060624</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2682580181261913</v>
+        <v>0.2612541767434527</v>
       </c>
       <c r="F6">
-        <v>0.4527745582515159</v>
+        <v>0.4470125443593003</v>
       </c>
       <c r="G6">
-        <v>0.5981803531867963</v>
+        <v>0.5933969448619154</v>
       </c>
       <c r="H6">
-        <v>0.628406810261726</v>
+        <v>0.6238268310999503</v>
       </c>
       <c r="I6">
-        <v>0.6794710597766137</v>
+        <v>0.6752347516417685</v>
       </c>
       <c r="J6">
-        <v>0.6794710597766137</v>
+        <v>0.6752347516417685</v>
       </c>
       <c r="K6">
-        <v>0.7477785773357122</v>
+        <v>0.7440019903351168</v>
       </c>
       <c r="L6">
-        <v>0.8389286675256913</v>
+        <v>0.8357655360325787</v>
       </c>
       <c r="M6">
-        <v>0.8799404915218084</v>
+        <v>0.8770533765334508</v>
       </c>
       <c r="N6">
-        <v>0.8799404915218084</v>
+        <v>0.8770533765334508</v>
       </c>
       <c r="O6">
-        <v>0.9170270137526358</v>
+        <v>0.9143894973249431</v>
       </c>
       <c r="P6">
-        <v>0.9238553696647469</v>
+        <v>0.9212638092260457</v>
       </c>
       <c r="Q6">
-        <v>0.9300298932695144</v>
+        <v>0.9274798884179062</v>
       </c>
       <c r="R6">
-        <v>0.9300298932695144</v>
+        <v>0.9274798884179062</v>
       </c>
       <c r="S6">
-        <v>0.9306395541999423</v>
+        <v>0.9280936524694027</v>
       </c>
       <c r="T6">
-        <v>0.9306395541999423</v>
+        <v>0.9280936524694027</v>
       </c>
       <c r="U6">
-        <v>0.9306395541999423</v>
+        <v>0.9280936524694027</v>
       </c>
       <c r="V6">
-        <v>0.9636144286545296</v>
+        <v>0.9612904534004264</v>
       </c>
       <c r="W6">
-        <v>0.9701520494083411</v>
+        <v>0.967872073446492</v>
       </c>
       <c r="X6">
-        <v>0.976431396160184</v>
+        <v>0.9741936812629185</v>
       </c>
       <c r="Y6">
-        <v>0.9829590107406591</v>
+        <v>0.9807652277924105</v>
       </c>
       <c r="Z6">
-        <v>0.9829590107406591</v>
+        <v>0.9807652277924105</v>
       </c>
       <c r="AA6">
-        <v>0.983768246408202</v>
+        <v>0.9815799097527226</v>
       </c>
       <c r="AB6">
-        <v>0.983768246408202</v>
+        <v>0.9815799097527226</v>
       </c>
       <c r="AC6">
-        <v>0.983768246408202</v>
+        <v>0.9815799097527226</v>
       </c>
       <c r="AD6">
-        <v>0.983768246408202</v>
+        <v>0.9815799097527226</v>
       </c>
       <c r="AE6">
-        <v>0.983768246408202</v>
+        <v>0.9815799097527226</v>
       </c>
       <c r="AF6">
-        <v>0.9981990890215968</v>
+        <v>0.9961078743751066</v>
       </c>
       <c r="AG6">
-        <v>0.9981990890215968</v>
+        <v>0.9961078743751066</v>
       </c>
       <c r="AH6">
-        <v>0.9981990890215968</v>
+        <v>0.9961078743751066</v>
       </c>
       <c r="AI6">
+        <v>0.9979209057886724</v>
+      </c>
+      <c r="AJ6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:36">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2503,10 +2557,13 @@
       <c r="AI7">
         <v>0.9999999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:35">
+      <c r="AJ7">
+        <v>0.9999999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2610,10 +2667,13 @@
       <c r="AI8">
         <v>0.9999999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:35">
+      <c r="AJ8">
+        <v>0.9999999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2717,10 +2777,13 @@
       <c r="AI9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:35">
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2824,10 +2887,13 @@
       <c r="AI10">
         <v>0.9999999999999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:35">
+      <c r="AJ10">
+        <v>0.9999999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2929,6 +2995,9 @@
         <v>0.9893794830214501</v>
       </c>
       <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
         <v>1</v>
       </c>
     </row>
@@ -2947,48 +3016,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -3015,21 +3084,21 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -3056,21 +3125,21 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -3097,21 +3166,21 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -3138,21 +3207,21 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -3167,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5981803531867963</v>
+        <v>0.5933969448619154</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -3179,21 +3248,21 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -3220,21 +3289,21 @@
         <v>500</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -3261,21 +3330,21 @@
         <v>500</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.5</v>
@@ -3302,21 +3371,21 @@
         <v>500</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.5</v>
@@ -3343,21 +3412,21 @@
         <v>500</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.5</v>
@@ -3384,16 +3453,16 @@
         <v>500</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3411,48 +3480,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.7</v>
@@ -3479,21 +3548,21 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -3520,21 +3589,21 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -3561,21 +3630,21 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.7</v>
@@ -3602,21 +3671,21 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.7</v>
@@ -3631,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7477785773357122</v>
+        <v>0.7440019903351168</v>
       </c>
       <c r="G6">
         <v>8</v>
@@ -3643,21 +3712,21 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.7</v>
@@ -3684,21 +3753,21 @@
         <v>500</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.7</v>
@@ -3725,21 +3794,21 @@
         <v>500</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.7</v>
@@ -3766,21 +3835,21 @@
         <v>500</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.7</v>
@@ -3807,21 +3876,21 @@
         <v>500</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.7</v>
@@ -3848,16 +3917,16 @@
         <v>500</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3875,48 +3944,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.8</v>
@@ -3943,21 +4012,21 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.8</v>
@@ -3984,21 +4053,21 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -4025,21 +4094,21 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.8</v>
@@ -4066,21 +4135,21 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.8</v>
@@ -4095,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8389286675256913</v>
+        <v>0.8357655360325787</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -4107,21 +4176,21 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.8</v>
@@ -4148,21 +4217,21 @@
         <v>500</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.8</v>
@@ -4189,21 +4258,21 @@
         <v>500</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.8</v>
@@ -4230,21 +4299,21 @@
         <v>500</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.8</v>
@@ -4271,21 +4340,21 @@
         <v>500</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.8</v>
@@ -4312,16 +4381,16 @@
         <v>500</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4339,48 +4408,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.9</v>
@@ -4407,21 +4476,21 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -4448,21 +4517,21 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -4489,21 +4558,21 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -4530,21 +4599,21 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.9</v>
@@ -4559,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9170270137526358</v>
+        <v>0.9143894973249431</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -4571,21 +4640,21 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.9</v>
@@ -4612,21 +4681,21 @@
         <v>500</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.9</v>
@@ -4653,21 +4722,21 @@
         <v>500</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.9</v>
@@ -4694,21 +4763,21 @@
         <v>500</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.9</v>
@@ -4735,21 +4804,21 @@
         <v>500</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.9</v>
@@ -4776,16 +4845,16 @@
         <v>500</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/23_225-80R17.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/23_225-80R17.xlsx
@@ -159,40 +159,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>225-80R17.5</t>
@@ -202,9 +205,6 @@
   </si>
   <si>
     <t>0%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -689,49 +689,49 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2919391034786518</v>
+        <v>0.3795722049826877</v>
       </c>
       <c r="E2">
-        <v>0.152437243404223</v>
+        <v>0.1774340378758286</v>
       </c>
       <c r="F2">
-        <v>0.1429379722421958</v>
+        <v>0.16366959587829</v>
       </c>
       <c r="G2">
-        <v>0.002511839562311949</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.08199947569776468</v>
+        <v>0.07536972667821674</v>
       </c>
       <c r="I2">
-        <v>0.0009759827894547074</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.170739797166285</v>
+        <v>0.2039544345849769</v>
       </c>
       <c r="K2">
-        <v>0.01882232464089706</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.01645437535512691</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.02375693181808939</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.02558985584900219</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003106718015272886</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0001759908955237892</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0009568090228998262</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -740,49 +740,49 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.02653741926912092</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.003178758674523132</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.01167733297837606</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.007767389120627016</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0008362030307670096</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>7.506186234350957E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.00173810703862762</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.001756865301726784</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.00812928025294977</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.001684909066291168</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0008752778122981346</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0005049045194451748</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.002834071135204576</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -799,49 +799,49 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3169597553911978</v>
+        <v>0.4394856616551252</v>
       </c>
       <c r="E3">
-        <v>0.102289633698033</v>
+        <v>0.1108166116422742</v>
       </c>
       <c r="F3">
-        <v>0.198568379962563</v>
+        <v>0.2582234506639663</v>
       </c>
       <c r="G3">
-        <v>0.00836822118298956</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.09076270605904185</v>
+        <v>0.09316839713159722</v>
       </c>
       <c r="I3">
-        <v>0.01939360768734575</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04721575531727343</v>
+        <v>0.02649617084148113</v>
       </c>
       <c r="K3">
-        <v>0.07590670214006963</v>
+        <v>0.07042322581234482</v>
       </c>
       <c r="L3">
-        <v>0.03081536743557088</v>
+        <v>0.001386482253210857</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.01534933025601355</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0134331642813006</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.01799095532365745</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.004351358316435461</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -850,49 +850,49 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.01199672812110026</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.009295355101773133</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.007035729205416862</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.003479426565074241</v>
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.002726442075536152</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.002176363076965386</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0004492009233175614</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.002590317799377313</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.001719211409288433</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.010998149414442</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.001527424725741832</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.000820839429672175</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.003779875100802673</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -909,43 +909,43 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3456938746863376</v>
+        <v>0.4863133170604222</v>
       </c>
       <c r="E4">
-        <v>0.09899473485422768</v>
+        <v>0.1064516189083336</v>
       </c>
       <c r="F4">
-        <v>0.1890099561294337</v>
+        <v>0.2450549996757166</v>
       </c>
       <c r="G4">
-        <v>0.0352448527808969</v>
+        <v>0.008291007250542548</v>
       </c>
       <c r="H4">
-        <v>0.06009661643711038</v>
+        <v>0.04655718503676477</v>
       </c>
       <c r="I4">
-        <v>0.0006949268225124036</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06369671924224966</v>
+        <v>0.05210054106959481</v>
       </c>
       <c r="K4">
-        <v>0.05751429505079197</v>
+        <v>0.04258098557514957</v>
       </c>
       <c r="L4">
-        <v>0.02221792141980789</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.01144266160788288</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.003459988575924239</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.01139754125974182</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -957,52 +957,52 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>5.759551274467799E-05</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.03807600154564916</v>
+        <v>0.01265034542347607</v>
       </c>
       <c r="V4">
-        <v>0.008641118749864188</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.007419929125727592</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.007591647876050544</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.005149872947931921</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0003580163352798684</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.000702582344894328</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.005853031909415232</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0017960508387208</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.004503008698948875</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.004870087613147157</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.00805002337925133</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.007466944255457033</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -1019,46 +1019,46 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05892326049533565</v>
+        <v>0.04974234367940822</v>
       </c>
       <c r="E5">
-        <v>0.167322162926565</v>
+        <v>0.2350520087724837</v>
       </c>
       <c r="F5">
-        <v>0.2289703265540432</v>
+        <v>0.3404405348478169</v>
       </c>
       <c r="G5">
-        <v>0.09624026213756526</v>
+        <v>0.1135363574701519</v>
       </c>
       <c r="H5">
-        <v>0.03844712421125127</v>
+        <v>0.01473805976047171</v>
       </c>
       <c r="I5">
-        <v>0.02778510877699441</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01356685301139618</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1022911327076828</v>
+        <v>0.1238804179146881</v>
       </c>
       <c r="L5">
-        <v>0.0579067073792993</v>
+        <v>0.04800452979700725</v>
       </c>
       <c r="M5">
-        <v>0.02739236639488293</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.050498183256882</v>
+        <v>0.03533953879462969</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.002878685528621342</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1067,28 +1067,28 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0003284666500660573</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.009121980449693253</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.05279513164478231</v>
+        <v>0.0392662089633422</v>
       </c>
       <c r="W5">
-        <v>0.00660913812984455</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.01947490429411073</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.01295709216095535</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0004092060722180907</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1097,22 +1097,22 @@
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.002374422805397923</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.009173053306072935</v>
+        <v>0</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.004576288670160399</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.009958142436179198</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1132,49 +1132,49 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2612541767434527</v>
+        <v>0.3549794035163336</v>
       </c>
       <c r="F6">
-        <v>0.1857583676158476</v>
+        <v>0.2393614381371332</v>
       </c>
       <c r="G6">
-        <v>0.1463844005026151</v>
+        <v>0.1790622239271761</v>
       </c>
       <c r="H6">
-        <v>0.03042988623803487</v>
+        <v>0.001483823606380344</v>
       </c>
       <c r="I6">
-        <v>0.05140792054181816</v>
+        <v>0.03361060881321155</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.06876723869334832</v>
+        <v>0.06019551555495892</v>
       </c>
       <c r="L6">
-        <v>0.09176354569746197</v>
+        <v>0.09541318204234132</v>
       </c>
       <c r="M6">
-        <v>0.04128784050087213</v>
+        <v>0.01811222450116103</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03733612079149228</v>
+        <v>0.0120603681421526</v>
       </c>
       <c r="P6">
-        <v>0.006874311901102536</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.006216079191860478</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0006137640514965412</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.03319680093102374</v>
+        <v>0.005721211759151521</v>
       </c>
       <c r="W6">
-        <v>0.006581620046065587</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.006321607816426491</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.006571546529491953</v>
+        <v>0</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0008146819603120683</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.01452796462238407</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -1222,10 +1222,10 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.001813031413565815</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.002079094211327635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -1239,43 +1239,43 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3454516663247885</v>
+        <v>0.5136057038571203</v>
       </c>
       <c r="E7">
-        <v>0.08860371980558945</v>
+        <v>0.0954421948352117</v>
       </c>
       <c r="F7">
-        <v>0.1792837506376524</v>
+        <v>0.2430745991616987</v>
       </c>
       <c r="G7">
-        <v>0.03029989775002391</v>
+        <v>0.0005201557434106502</v>
       </c>
       <c r="H7">
-        <v>0.05164571035199169</v>
+        <v>0.0352723895904339</v>
       </c>
       <c r="I7">
-        <v>0.0003027282532106233</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0573589885250021</v>
+        <v>0.0445739412719683</v>
       </c>
       <c r="K7">
-        <v>0.04258139737088609</v>
+        <v>0.0205151568602566</v>
       </c>
       <c r="L7">
-        <v>0.04501724605656336</v>
+        <v>0.02448086126884946</v>
       </c>
       <c r="M7">
-        <v>0.01241925592645101</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.04380975644037712</v>
+        <v>0.02251499741105056</v>
       </c>
       <c r="O7">
-        <v>0.005781439356987293</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.007315760203907241</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1284,55 +1284,55 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>8.122587947475905E-05</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.02774920878339196</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.008331272464740557</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.005126884849645462</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>0.01541322587605089</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.003703071073091768</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.002093916393334866</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.001568049740168488</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.007181054962361237</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.003044973397423816</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.008149342222314034</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.001009394268757341</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.0001364570467229457</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.002355557941317068</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.004185048097773948</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -1349,46 +1349,46 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0756954058038538</v>
+        <v>0.0761342683869612</v>
       </c>
       <c r="E8">
-        <v>0.07791127720441575</v>
+        <v>0.07980990212422631</v>
       </c>
       <c r="F8">
-        <v>0.2420666866992611</v>
+        <v>0.352106914099202</v>
       </c>
       <c r="G8">
-        <v>0.08812192732136383</v>
+        <v>0.09674708089721219</v>
       </c>
       <c r="H8">
-        <v>0.1331805829168919</v>
+        <v>0.1714892859821874</v>
       </c>
       <c r="I8">
-        <v>0.0491795982042179</v>
+        <v>0.03215048983404711</v>
       </c>
       <c r="J8">
-        <v>0.01260288084089964</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.02895079180252195</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.086847354262201</v>
+        <v>0.09463285001915671</v>
       </c>
       <c r="M8">
-        <v>0.04867250570331633</v>
+        <v>0.03130933709217082</v>
       </c>
       <c r="N8">
-        <v>0.01015750010144396</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.05977665702075772</v>
+        <v>0.04972863398626571</v>
       </c>
       <c r="P8">
-        <v>0.001296017348449568</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.003749720462986957</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1403,37 +1403,37 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>0.03937763896596139</v>
+        <v>0.01589123757857049</v>
       </c>
       <c r="W8">
-        <v>0.004336256066497054</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>0.008171908756010838</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0.01001959138558284</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.0002221233131306265</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.0009854926226743291</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.003650717143798829</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>0.006957392522215024</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.004410242220320978</v>
+        <v>0</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.003659731311226334</v>
+        <v>0</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1459,70 +1459,70 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02186376967145845</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2625750624143657</v>
+        <v>0.3931601161782978</v>
       </c>
       <c r="F9">
-        <v>0.2046959047721146</v>
+        <v>0.2954619609242632</v>
       </c>
       <c r="G9">
-        <v>0.06782953408927145</v>
+        <v>0.06443593226852583</v>
       </c>
       <c r="H9">
-        <v>0.05418292713768533</v>
+        <v>0.04140089895156561</v>
       </c>
       <c r="I9">
-        <v>0.0359472564079451</v>
+        <v>0.01061967367652683</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.07129330695870235</v>
+        <v>0.07028266939027245</v>
       </c>
       <c r="L9">
-        <v>0.05745849640165581</v>
+        <v>0.04692995444464561</v>
       </c>
       <c r="M9">
-        <v>0.04331595053647762</v>
+        <v>0.02305779220338213</v>
       </c>
       <c r="N9">
-        <v>0.009973427720462117</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03626906693886979</v>
+        <v>0.01116287949522576</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.003289755677792848</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>8.422311245902234E-05</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.006642293364552344</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0.05541945753672275</v>
+        <v>0.04348812246729458</v>
       </c>
       <c r="W9">
-        <v>0.01471038633673595</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>0.01574867443803513</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.01590262501422453</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1534,25 +1534,25 @@
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.002912676205370183</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.00666560713497627</v>
+        <v>0</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.003036128939884521</v>
+        <v>0</v>
       </c>
       <c r="AG9">
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.003250843394396793</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.0069326257958412</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -1569,49 +1569,49 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2561233737241914</v>
+        <v>0.3613551420638112</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.2964615412484549</v>
+        <v>0.4256372776584902</v>
       </c>
       <c r="G10">
-        <v>0.06607121983936622</v>
+        <v>0.05849164885389799</v>
       </c>
       <c r="H10">
-        <v>0.1118749544812603</v>
+        <v>0.1314836081247768</v>
       </c>
       <c r="I10">
-        <v>0.01675150709139471</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02948144977898242</v>
+        <v>0.0001828880757852699</v>
       </c>
       <c r="K10">
-        <v>0.04224773819595001</v>
+        <v>0.02052700218475341</v>
       </c>
       <c r="L10">
-        <v>0.03082405176836348</v>
+        <v>0.002322433038485067</v>
       </c>
       <c r="M10">
-        <v>0.01611949051058424</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.01760680692175928</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.00950803230286707</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.001984018386519897</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>9.740110458180114E-05</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1620,16 +1620,16 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.02284556522002238</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>0.0151306817228686</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>0.01100937009253881</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1638,16 +1638,16 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.004269015689907492</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.001999909566011803</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.02237686029984003</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.01535925900438876</v>
+        <v>0</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -1656,13 +1656,13 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>0.004396984222812796</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.004693478683004899</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.002767290144328742</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1679,85 +1679,85 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.06311694445593072</v>
+        <v>0.05671489358004347</v>
       </c>
       <c r="E11">
-        <v>0.1414655909675047</v>
+        <v>0.1890477312478654</v>
       </c>
       <c r="F11">
-        <v>0.3089612392222961</v>
+        <v>0.4719521005951213</v>
       </c>
       <c r="G11">
-        <v>0.06749782486643639</v>
+        <v>0.0641143109537686</v>
       </c>
       <c r="H11">
-        <v>0.06239146294511546</v>
+        <v>0.05548953703240306</v>
       </c>
       <c r="I11">
-        <v>0.06249375308942772</v>
+        <v>0.05566230766297538</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.08176509007910059</v>
+        <v>0.0882120813099208</v>
       </c>
       <c r="L11">
-        <v>0.03151056913852512</v>
+        <v>0.003330929461038269</v>
       </c>
       <c r="M11">
-        <v>0.02256270260511959</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.01772096334517186</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.01574538315297815</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.0009894184346427944</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.001459459828446376</v>
+        <v>0</v>
       </c>
       <c r="T11">
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.005375799439889803</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>0.03870121304240404</v>
+        <v>0.01547610815686364</v>
       </c>
       <c r="W11">
-        <v>0.006701380537545189</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.01168247953052393</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.005387962061324802</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.002011197054565696</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.001373475543345037</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.01641966974600895</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.01701162547918173</v>
+        <v>0</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -1766,13 +1766,13 @@
         <v>0</v>
       </c>
       <c r="AG11">
-        <v>0.003120959259098084</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.003913319196867274</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.01062051697854988</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -1912,103 +1912,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2919391034786518</v>
+        <v>0.3795722049826877</v>
       </c>
       <c r="E2">
-        <v>0.4443763468828748</v>
+        <v>0.5570062428585163</v>
       </c>
       <c r="F2">
-        <v>0.5873143191250706</v>
+        <v>0.7206758387368063</v>
       </c>
       <c r="G2">
-        <v>0.5898261586873825</v>
+        <v>0.7206758387368063</v>
       </c>
       <c r="H2">
-        <v>0.6718256343851472</v>
+        <v>0.796045565415023</v>
       </c>
       <c r="I2">
-        <v>0.6728016171746019</v>
+        <v>0.796045565415023</v>
       </c>
       <c r="J2">
-        <v>0.8435414143408868</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0.8623637389817839</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.8788181143369108</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9025750461550002</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0.9281649020040024</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>0.9312716200192752</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.931447610914799</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.931447610914799</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0.9324044199376988</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0.9324044199376988</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.9324044199376988</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0.9589418392068197</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0.9621205978813429</v>
+        <v>1</v>
       </c>
       <c r="W2">
-        <v>0.9737979308597189</v>
+        <v>1</v>
       </c>
       <c r="X2">
-        <v>0.9815653199803459</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0.9824015230111129</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>0.9824765848734565</v>
+        <v>1</v>
       </c>
       <c r="AA2">
-        <v>0.9824765848734565</v>
+        <v>1</v>
       </c>
       <c r="AB2">
-        <v>0.9842146919120841</v>
+        <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.9859715572138109</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>0.9859715572138109</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>0.9941008374667607</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.9957857465330519</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.99666102434535</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9971659288647952</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2022,103 +2022,103 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3169597553911978</v>
+        <v>0.4394856616551252</v>
       </c>
       <c r="E3">
-        <v>0.4192493890892308</v>
+        <v>0.5503022732973994</v>
       </c>
       <c r="F3">
-        <v>0.6178177690517939</v>
+        <v>0.8085257239613658</v>
       </c>
       <c r="G3">
-        <v>0.6261859902347834</v>
+        <v>0.8085257239613658</v>
       </c>
       <c r="H3">
-        <v>0.7169486962938252</v>
+        <v>0.901694121092963</v>
       </c>
       <c r="I3">
-        <v>0.736342303981171</v>
+        <v>0.901694121092963</v>
       </c>
       <c r="J3">
-        <v>0.7835580592984444</v>
+        <v>0.9281902919344441</v>
       </c>
       <c r="K3">
-        <v>0.859464761438514</v>
+        <v>0.998613517746789</v>
       </c>
       <c r="L3">
-        <v>0.8902801288740849</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="M3">
-        <v>0.8902801288740849</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="N3">
-        <v>0.9056294591300985</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="O3">
-        <v>0.9190626234113991</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="P3">
-        <v>0.9370535787350566</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Q3">
-        <v>0.9370535787350566</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="R3">
-        <v>0.9414049370514921</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="S3">
-        <v>0.9414049370514921</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="T3">
-        <v>0.9414049370514921</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="U3">
-        <v>0.9534016651725924</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="V3">
-        <v>0.9626970202743655</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="W3">
-        <v>0.9697327494797824</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="X3">
-        <v>0.9732121760448567</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Y3">
-        <v>0.9732121760448567</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Z3">
-        <v>0.9759386181203928</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AA3">
-        <v>0.9781149811973582</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB3">
-        <v>0.9785641821206758</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC3">
-        <v>0.9811544999200531</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD3">
-        <v>0.9828737113293415</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE3">
-        <v>0.9938718607437835</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF3">
-        <v>0.9953992854695254</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG3">
-        <v>0.9962201248991975</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH3">
-        <v>0.9962201248991975</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ3">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -2132,103 +2132,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3456938746863376</v>
+        <v>0.4863133170604222</v>
       </c>
       <c r="E4">
-        <v>0.4446886095405653</v>
+        <v>0.5927649359687558</v>
       </c>
       <c r="F4">
-        <v>0.6336985656699989</v>
+        <v>0.8378199356444723</v>
       </c>
       <c r="G4">
-        <v>0.6689434184508958</v>
+        <v>0.8461109428950149</v>
       </c>
       <c r="H4">
-        <v>0.7290400348880062</v>
+        <v>0.8926681279317796</v>
       </c>
       <c r="I4">
-        <v>0.7297349617105185</v>
+        <v>0.8926681279317796</v>
       </c>
       <c r="J4">
-        <v>0.7934316809527682</v>
+        <v>0.9447686690013745</v>
       </c>
       <c r="K4">
-        <v>0.8509459760035601</v>
+        <v>0.987349654576524</v>
       </c>
       <c r="L4">
-        <v>0.8731638974233681</v>
+        <v>0.987349654576524</v>
       </c>
       <c r="M4">
-        <v>0.8731638974233681</v>
+        <v>0.987349654576524</v>
       </c>
       <c r="N4">
-        <v>0.884606559031251</v>
+        <v>0.987349654576524</v>
       </c>
       <c r="O4">
-        <v>0.8880665476071752</v>
+        <v>0.987349654576524</v>
       </c>
       <c r="P4">
-        <v>0.899464088866917</v>
+        <v>0.987349654576524</v>
       </c>
       <c r="Q4">
-        <v>0.899464088866917</v>
+        <v>0.987349654576524</v>
       </c>
       <c r="R4">
-        <v>0.899464088866917</v>
+        <v>0.987349654576524</v>
       </c>
       <c r="S4">
-        <v>0.899464088866917</v>
+        <v>0.987349654576524</v>
       </c>
       <c r="T4">
-        <v>0.8995216843796616</v>
+        <v>0.987349654576524</v>
       </c>
       <c r="U4">
-        <v>0.9375976859253108</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0.946238804675175</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0.9536587338009026</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0.9612503816769531</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0.9612503816769531</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0.966400254624885</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0.9667582709601649</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0.9674608533050592</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.9733138852144744</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0.9751099360531952</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0.9796129447521441</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.9796129447521441</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9844830323652912</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9925330557445425</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -2242,103 +2242,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05892326049533565</v>
+        <v>0.04974234367940822</v>
       </c>
       <c r="E5">
-        <v>0.2262454234219006</v>
+        <v>0.2847943524518919</v>
       </c>
       <c r="F5">
-        <v>0.4552157499759438</v>
+        <v>0.6252348872997089</v>
       </c>
       <c r="G5">
-        <v>0.551456012113509</v>
+        <v>0.7387712447698608</v>
       </c>
       <c r="H5">
-        <v>0.5899031363247603</v>
+        <v>0.7535093045303325</v>
       </c>
       <c r="I5">
-        <v>0.6176882451017547</v>
+        <v>0.7535093045303325</v>
       </c>
       <c r="J5">
-        <v>0.6312550981131508</v>
+        <v>0.7535093045303325</v>
       </c>
       <c r="K5">
-        <v>0.7335462308208336</v>
+        <v>0.8773897224450207</v>
       </c>
       <c r="L5">
-        <v>0.7914529382001328</v>
+        <v>0.9253942522420279</v>
       </c>
       <c r="M5">
-        <v>0.8188453045950158</v>
+        <v>0.9253942522420279</v>
       </c>
       <c r="N5">
-        <v>0.8188453045950158</v>
+        <v>0.9253942522420279</v>
       </c>
       <c r="O5">
-        <v>0.8693434878518979</v>
+        <v>0.9607337910366576</v>
       </c>
       <c r="P5">
-        <v>0.8693434878518979</v>
+        <v>0.9607337910366576</v>
       </c>
       <c r="Q5">
-        <v>0.8722221733805192</v>
+        <v>0.9607337910366576</v>
       </c>
       <c r="R5">
-        <v>0.8722221733805192</v>
+        <v>0.9607337910366576</v>
       </c>
       <c r="S5">
-        <v>0.8722221733805192</v>
+        <v>0.9607337910366576</v>
       </c>
       <c r="T5">
-        <v>0.8725506400305852</v>
+        <v>0.9607337910366576</v>
       </c>
       <c r="U5">
-        <v>0.8816726204802785</v>
+        <v>0.9607337910366576</v>
       </c>
       <c r="V5">
-        <v>0.9344677521250608</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="W5">
-        <v>0.9410768902549054</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="X5">
-        <v>0.9605517945490161</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Y5">
-        <v>0.9735088867099714</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Z5">
-        <v>0.9735088867099714</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AA5">
-        <v>0.9739180927821894</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB5">
-        <v>0.9739180927821894</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC5">
-        <v>0.9739180927821894</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD5">
-        <v>0.9762925155875873</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE5">
-        <v>0.9762925155875873</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF5">
-        <v>0.9854655688936603</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG5">
-        <v>0.9854655688936603</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH5">
-        <v>0.9900418575638207</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -2355,97 +2355,97 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2612541767434527</v>
+        <v>0.3549794035163336</v>
       </c>
       <c r="F6">
-        <v>0.4470125443593003</v>
+        <v>0.5943408416534668</v>
       </c>
       <c r="G6">
-        <v>0.5933969448619154</v>
+        <v>0.7734030655806429</v>
       </c>
       <c r="H6">
-        <v>0.6238268310999503</v>
+        <v>0.7748868891870232</v>
       </c>
       <c r="I6">
-        <v>0.6752347516417685</v>
+        <v>0.8084974980002347</v>
       </c>
       <c r="J6">
-        <v>0.6752347516417685</v>
+        <v>0.8084974980002347</v>
       </c>
       <c r="K6">
-        <v>0.7440019903351168</v>
+        <v>0.8686930135551937</v>
       </c>
       <c r="L6">
-        <v>0.8357655360325787</v>
+        <v>0.964106195597535</v>
       </c>
       <c r="M6">
-        <v>0.8770533765334508</v>
+        <v>0.982218420098696</v>
       </c>
       <c r="N6">
-        <v>0.8770533765334508</v>
+        <v>0.982218420098696</v>
       </c>
       <c r="O6">
-        <v>0.9143894973249431</v>
+        <v>0.9942787882408486</v>
       </c>
       <c r="P6">
-        <v>0.9212638092260457</v>
+        <v>0.9942787882408486</v>
       </c>
       <c r="Q6">
-        <v>0.9274798884179062</v>
+        <v>0.9942787882408486</v>
       </c>
       <c r="R6">
-        <v>0.9274798884179062</v>
+        <v>0.9942787882408486</v>
       </c>
       <c r="S6">
-        <v>0.9280936524694027</v>
+        <v>0.9942787882408486</v>
       </c>
       <c r="T6">
-        <v>0.9280936524694027</v>
+        <v>0.9942787882408486</v>
       </c>
       <c r="U6">
-        <v>0.9280936524694027</v>
+        <v>0.9942787882408486</v>
       </c>
       <c r="V6">
-        <v>0.9612904534004264</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0.967872073446492</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0.9741936812629185</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.9807652277924105</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.9807652277924105</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.9815799097527226</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.9815799097527226</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.9815799097527226</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9815799097527226</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9815799097527226</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9961078743751066</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9961078743751066</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9961078743751066</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.9979209057886724</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
         <v>1</v>
@@ -2462,103 +2462,103 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3454516663247885</v>
+        <v>0.5136057038571203</v>
       </c>
       <c r="E7">
-        <v>0.4340553861303779</v>
+        <v>0.609047898692332</v>
       </c>
       <c r="F7">
-        <v>0.6133391367680303</v>
+        <v>0.8521224978540307</v>
       </c>
       <c r="G7">
-        <v>0.6436390345180543</v>
+        <v>0.8526426535974414</v>
       </c>
       <c r="H7">
-        <v>0.695284744870046</v>
+        <v>0.8879150431878753</v>
       </c>
       <c r="I7">
-        <v>0.6955874731232566</v>
+        <v>0.8879150431878753</v>
       </c>
       <c r="J7">
-        <v>0.7529464616482587</v>
+        <v>0.9324889844598436</v>
       </c>
       <c r="K7">
-        <v>0.7955278590191448</v>
+        <v>0.9530041413201003</v>
       </c>
       <c r="L7">
-        <v>0.8405451050757081</v>
+        <v>0.9774850025889497</v>
       </c>
       <c r="M7">
-        <v>0.8529643610021591</v>
+        <v>0.9774850025889497</v>
       </c>
       <c r="N7">
-        <v>0.8967741174425362</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.9025555567995235</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0.9098713170034307</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.9098713170034307</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0.9098713170034307</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0.9099525428829055</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0.9099525428829055</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0.9377017516662974</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0.946033024131038</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0.9511599089806834</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0.9665731348567342</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.970276205929826</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.970276205929826</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.9723701223231609</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.9739381720633293</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.9811192270256905</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.9841642004231144</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.9923135426454284</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.9933229369141857</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9934593939609087</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9958149519022257</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2572,103 +2572,103 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0756954058038538</v>
+        <v>0.0761342683869612</v>
       </c>
       <c r="E8">
-        <v>0.1536066830082695</v>
+        <v>0.1559441705111875</v>
       </c>
       <c r="F8">
-        <v>0.3956733697075306</v>
+        <v>0.5080510846103895</v>
       </c>
       <c r="G8">
-        <v>0.4837952970288945</v>
+        <v>0.6047981655076017</v>
       </c>
       <c r="H8">
-        <v>0.6169758799457864</v>
+        <v>0.7762874514897891</v>
       </c>
       <c r="I8">
-        <v>0.6661554781500043</v>
+        <v>0.8084379413238362</v>
       </c>
       <c r="J8">
-        <v>0.678758358990904</v>
+        <v>0.8084379413238362</v>
       </c>
       <c r="K8">
-        <v>0.7077091507934259</v>
+        <v>0.8084379413238362</v>
       </c>
       <c r="L8">
-        <v>0.7945565050556269</v>
+        <v>0.9030707913429928</v>
       </c>
       <c r="M8">
-        <v>0.8432290107589433</v>
+        <v>0.9343801284351636</v>
       </c>
       <c r="N8">
-        <v>0.8533865108603873</v>
+        <v>0.9343801284351636</v>
       </c>
       <c r="O8">
-        <v>0.913163167881145</v>
+        <v>0.9841087624214293</v>
       </c>
       <c r="P8">
-        <v>0.9144591852295946</v>
+        <v>0.9841087624214293</v>
       </c>
       <c r="Q8">
-        <v>0.9182089056925815</v>
+        <v>0.9841087624214293</v>
       </c>
       <c r="R8">
-        <v>0.9182089056925815</v>
+        <v>0.9841087624214293</v>
       </c>
       <c r="S8">
-        <v>0.9182089056925815</v>
+        <v>0.9841087624214293</v>
       </c>
       <c r="T8">
-        <v>0.9182089056925815</v>
+        <v>0.9841087624214293</v>
       </c>
       <c r="U8">
-        <v>0.9182089056925815</v>
+        <v>0.9841087624214293</v>
       </c>
       <c r="V8">
-        <v>0.9575865446585429</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="W8">
-        <v>0.9619228007250399</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="X8">
-        <v>0.9700947094810507</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Y8">
-        <v>0.9801143008666335</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="Z8">
-        <v>0.9801143008666335</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AA8">
-        <v>0.9803364241797642</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AB8">
-        <v>0.9813219168024385</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AC8">
-        <v>0.9849726339462374</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AD8">
-        <v>0.9919300264684524</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AE8">
-        <v>0.9919300264684524</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AF8">
-        <v>0.9963402686887733</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG8">
-        <v>0.9963402686887733</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH8">
-        <v>0.9963402686887733</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -2682,103 +2682,103 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02186376967145845</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2844388320858242</v>
+        <v>0.3931601161782978</v>
       </c>
       <c r="F9">
-        <v>0.4891347368579387</v>
+        <v>0.6886220771025611</v>
       </c>
       <c r="G9">
-        <v>0.5569642709472102</v>
+        <v>0.7530580093710869</v>
       </c>
       <c r="H9">
-        <v>0.6111471980848956</v>
+        <v>0.7944589083226525</v>
       </c>
       <c r="I9">
-        <v>0.6470944544928406</v>
+        <v>0.8050785819991794</v>
       </c>
       <c r="J9">
-        <v>0.6470944544928406</v>
+        <v>0.8050785819991794</v>
       </c>
       <c r="K9">
-        <v>0.718387761451543</v>
+        <v>0.8753612513894518</v>
       </c>
       <c r="L9">
-        <v>0.7758462578531988</v>
+        <v>0.9222912058340974</v>
       </c>
       <c r="M9">
-        <v>0.8191622083896765</v>
+        <v>0.9453489980374795</v>
       </c>
       <c r="N9">
-        <v>0.8291356361101386</v>
+        <v>0.9453489980374795</v>
       </c>
       <c r="O9">
-        <v>0.8654047030490084</v>
+        <v>0.9565118775327053</v>
       </c>
       <c r="P9">
-        <v>0.8654047030490084</v>
+        <v>0.9565118775327053</v>
       </c>
       <c r="Q9">
-        <v>0.8686944587268013</v>
+        <v>0.9565118775327053</v>
       </c>
       <c r="R9">
-        <v>0.8686944587268013</v>
+        <v>0.9565118775327053</v>
       </c>
       <c r="S9">
-        <v>0.8687786818392603</v>
+        <v>0.9565118775327053</v>
       </c>
       <c r="T9">
-        <v>0.8687786818392603</v>
+        <v>0.9565118775327053</v>
       </c>
       <c r="U9">
-        <v>0.8754209752038127</v>
+        <v>0.9565118775327053</v>
       </c>
       <c r="V9">
-        <v>0.9308404327405354</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="W9">
-        <v>0.9455508190772713</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="X9">
-        <v>0.9612994935153065</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Y9">
-        <v>0.9772021185295311</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="Z9">
-        <v>0.9772021185295311</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AA9">
-        <v>0.9772021185295311</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB9">
-        <v>0.9772021185295311</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC9">
-        <v>0.9801147947349013</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD9">
-        <v>0.9867804018698776</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE9">
-        <v>0.9867804018698776</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF9">
-        <v>0.9898165308097621</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG9">
-        <v>0.9898165308097621</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH9">
-        <v>0.9930673742041588</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ9">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:36">
@@ -2792,103 +2792,103 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2561233737241914</v>
+        <v>0.3613551420638112</v>
       </c>
       <c r="E10">
-        <v>0.2561233737241914</v>
+        <v>0.3613551420638112</v>
       </c>
       <c r="F10">
-        <v>0.5525849149726463</v>
+        <v>0.7869924197223015</v>
       </c>
       <c r="G10">
-        <v>0.6186561348120125</v>
+        <v>0.8454840685761995</v>
       </c>
       <c r="H10">
-        <v>0.7305310892932728</v>
+        <v>0.9769676767009763</v>
       </c>
       <c r="I10">
-        <v>0.7472825963846675</v>
+        <v>0.9769676767009763</v>
       </c>
       <c r="J10">
-        <v>0.7767640461636499</v>
+        <v>0.9771505647767615</v>
       </c>
       <c r="K10">
-        <v>0.8190117843595999</v>
+        <v>0.997677566961515</v>
       </c>
       <c r="L10">
-        <v>0.8498358361279633</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8659553266385476</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>0.8835621335603069</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.893070165863174</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0.893070165863174</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>0.8950541842496939</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>0.8951515853542756</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>0.8951515853542756</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>0.8951515853542756</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>0.917997150574298</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0.9331278322971666</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0.9331278322971666</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0.9441372023897053</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.9441372023897053</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0.9441372023897053</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.9484062180796128</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.9504061276456246</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.9727829879454646</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.9881422469498533</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.9881422469498533</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.9881422469498533</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.9925392311726661</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9972327098556709</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -2902,97 +2902,97 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.06311694445593072</v>
+        <v>0.05671489358004347</v>
       </c>
       <c r="E11">
-        <v>0.2045825354234354</v>
+        <v>0.2457626248279089</v>
       </c>
       <c r="F11">
-        <v>0.5135437746457314</v>
+        <v>0.7177147254230302</v>
       </c>
       <c r="G11">
-        <v>0.5810415995121678</v>
+        <v>0.7818290363767988</v>
       </c>
       <c r="H11">
-        <v>0.6434330624572833</v>
+        <v>0.8373185734092019</v>
       </c>
       <c r="I11">
-        <v>0.705926815546711</v>
+        <v>0.8929808810721773</v>
       </c>
       <c r="J11">
-        <v>0.705926815546711</v>
+        <v>0.8929808810721773</v>
       </c>
       <c r="K11">
-        <v>0.7876919056258116</v>
+        <v>0.9811929623820981</v>
       </c>
       <c r="L11">
-        <v>0.8192024747643367</v>
+        <v>0.9845238918431364</v>
       </c>
       <c r="M11">
-        <v>0.8417651773694563</v>
+        <v>0.9845238918431364</v>
       </c>
       <c r="N11">
-        <v>0.8594861407146281</v>
+        <v>0.9845238918431364</v>
       </c>
       <c r="O11">
-        <v>0.8752315238676063</v>
+        <v>0.9845238918431364</v>
       </c>
       <c r="P11">
-        <v>0.8752315238676063</v>
+        <v>0.9845238918431364</v>
       </c>
       <c r="Q11">
-        <v>0.8762209423022491</v>
+        <v>0.9845238918431364</v>
       </c>
       <c r="R11">
-        <v>0.8762209423022491</v>
+        <v>0.9845238918431364</v>
       </c>
       <c r="S11">
-        <v>0.8776804021306955</v>
+        <v>0.9845238918431364</v>
       </c>
       <c r="T11">
-        <v>0.8776804021306955</v>
+        <v>0.9845238918431364</v>
       </c>
       <c r="U11">
-        <v>0.8830562015705853</v>
+        <v>0.9845238918431364</v>
       </c>
       <c r="V11">
-        <v>0.9217574146129893</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>0.9284587951505345</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>0.9401412746810585</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>0.9455292367423833</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>0.9455292367423833</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.947540433796949</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>0.948913909340294</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0.9653335790863029</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0.9823452045654847</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0.9823452045654847</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0.9823452045654847</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0.9854661638245827</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>0.9893794830214501</v>
+        <v>1</v>
       </c>
       <c r="AI11">
         <v>1</v>
@@ -3060,34 +3060,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.5570062428585163</v>
       </c>
       <c r="F2">
-        <v>0.5873143191250706</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>23</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3101,34 +3101,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5503022732973994</v>
       </c>
       <c r="F3">
-        <v>0.6178177690517939</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>23</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3142,34 +3142,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.5927649359687558</v>
       </c>
       <c r="F4">
-        <v>0.6336985656699989</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>23</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3183,34 +3183,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.6252348872997089</v>
       </c>
       <c r="F5">
-        <v>0.551456012113509</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>23</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3224,34 +3224,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.5943408416534668</v>
       </c>
       <c r="F6">
-        <v>0.5933969448619154</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>23</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3265,34 +3265,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.5136057038571203</v>
       </c>
       <c r="F7">
-        <v>0.6133391367680303</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>23</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3306,34 +3306,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.5080510846103895</v>
       </c>
       <c r="F8">
-        <v>0.6169758799457864</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>23</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3347,34 +3347,34 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.6886220771025611</v>
       </c>
       <c r="F9">
-        <v>0.5569642709472102</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>500</v>
       </c>
       <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>23</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3388,34 +3388,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
+      <c r="E10">
+        <v>0.7869924197223015</v>
+      </c>
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.5525849149726463</v>
-      </c>
       <c r="G10">
+        <v>500</v>
+      </c>
+      <c r="H10">
         <v>4</v>
       </c>
-      <c r="H10">
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>23</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3429,34 +3429,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.7177147254230302</v>
+      </c>
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.5135437746457314</v>
-      </c>
       <c r="G11">
+        <v>500</v>
+      </c>
+      <c r="H11">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>23</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3524,34 +3524,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.7206758387368063</v>
       </c>
       <c r="F2">
-        <v>0.8435414143408868</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>23</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3565,34 +3565,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8085257239613658</v>
       </c>
       <c r="F3">
-        <v>0.7169486962938252</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>23</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3606,34 +3606,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8378199356444723</v>
       </c>
       <c r="F4">
-        <v>0.7290400348880062</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>23</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3647,34 +3647,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>0.7</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.7387712447698608</v>
       </c>
       <c r="F5">
-        <v>0.7335462308208336</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>9</v>
+        <v>500</v>
       </c>
       <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>23</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3688,34 +3688,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.7734030655806429</v>
       </c>
       <c r="F6">
-        <v>0.7440019903351168</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>23</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3729,34 +3729,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8521224978540307</v>
       </c>
       <c r="F7">
-        <v>0.7529464616482587</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>23</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3770,34 +3770,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.7</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.7762874514897891</v>
       </c>
       <c r="F8">
-        <v>0.7077091507934259</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>500</v>
       </c>
       <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>23</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3811,34 +3811,34 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.7530580093710869</v>
       </c>
       <c r="F9">
-        <v>0.718387761451543</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>23</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3852,34 +3852,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.7869924197223015</v>
       </c>
       <c r="F10">
-        <v>0.7305310892932728</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>23</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3893,34 +3893,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.7177147254230302</v>
       </c>
       <c r="F11">
-        <v>0.705926815546711</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>500</v>
       </c>
       <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>23</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3988,34 +3988,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8435414143408868</v>
-      </c>
       <c r="G2">
+        <v>500</v>
+      </c>
+      <c r="H2">
         <v>8</v>
       </c>
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>23</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4029,34 +4029,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.8085257239613658</v>
       </c>
       <c r="F3">
-        <v>0.859464761438514</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>500</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>23</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4070,34 +4070,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8378199356444723</v>
       </c>
       <c r="F4">
-        <v>0.8509459760035601</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>500</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>23</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4111,34 +4111,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>0.8</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>12</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.8773897224450207</v>
       </c>
       <c r="F5">
-        <v>0.8188453045950158</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>23</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4152,34 +4152,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.8084974980002347</v>
       </c>
       <c r="F6">
-        <v>0.8357655360325787</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>500</v>
       </c>
       <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>23</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4193,34 +4193,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.8521224978540307</v>
       </c>
       <c r="F7">
-        <v>0.8405451050757081</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>23</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4234,34 +4234,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.8084379413238362</v>
       </c>
       <c r="F8">
-        <v>0.8432290107589433</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>23</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4275,34 +4275,34 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>0.8</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.8050785819991794</v>
       </c>
       <c r="F9">
-        <v>0.8191622083896765</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>23</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4316,34 +4316,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8454840685761995</v>
       </c>
       <c r="F10">
-        <v>0.8190117843595999</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>9</v>
+        <v>500</v>
       </c>
       <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>23</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4357,34 +4357,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8373185734092019</v>
       </c>
       <c r="F11">
-        <v>0.8192024747643367</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>23</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -4452,34 +4452,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.9025750461550002</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>11</v>
+        <v>500</v>
       </c>
       <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2">
         <v>23</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4493,34 +4493,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>13</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.901694121092963</v>
       </c>
       <c r="F3">
-        <v>0.9056294591300985</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3">
         <v>23</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4534,34 +4534,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9447686690013745</v>
       </c>
       <c r="F4">
-        <v>0.9375976859253108</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>500</v>
       </c>
       <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4">
         <v>23</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>59</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4575,34 +4575,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>0.9</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9253942522420279</v>
       </c>
       <c r="F5">
-        <v>0.9344677521250608</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5">
         <v>23</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
-        <v>59</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4616,34 +4616,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.964106195597535</v>
       </c>
       <c r="F6">
-        <v>0.9143894973249431</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6">
         <v>23</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>59</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4657,34 +4657,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9324889844598436</v>
       </c>
       <c r="F7">
-        <v>0.9025555567995235</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7">
         <v>23</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
-        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4698,34 +4698,34 @@
         <v>42</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
         <v>0.9</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>14</v>
-      </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.9030707913429928</v>
       </c>
       <c r="F8">
-        <v>0.913163167881145</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8">
         <v>23</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
-        <v>59</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4739,34 +4739,34 @@
         <v>43</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>0.9</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.9222912058340974</v>
       </c>
       <c r="F9">
-        <v>0.9308404327405354</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>500</v>
       </c>
       <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>23</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>59</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4780,34 +4780,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9769676767009763</v>
       </c>
       <c r="F10">
-        <v>0.917997150574298</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>500</v>
       </c>
       <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10">
         <v>23</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
-        <v>59</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4821,34 +4821,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9811929623820981</v>
       </c>
       <c r="F11">
-        <v>0.9217574146129893</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
         <v>23</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
